--- a/Updates/Input data/8682-AdvancedActionListi.xlsx
+++ b/Updates/Input data/8682-AdvancedActionListi.xlsx
@@ -123,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -178,11 +178,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45851.954884259256</v>
+        <v>45855.99613425926</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.454694</t>
+          <t>M.15608.6407.444208</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -201,14 +201,14 @@
         </is>
       </c>
       <c r="F2" s="6" t="n">
-        <v>71.03</v>
+        <v>47.35</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>7.1</v>
+        <v>4.74</v>
       </c>
       <c r="H2" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I2" s="9" t="inlineStr">
@@ -219,11 +219,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45851.93200231482</v>
+        <v>45855.98416666667</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.425711</t>
+          <t>M.15608.6407.429598</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -242,10 +242,10 @@
         </is>
       </c>
       <c r="F3" s="6" t="n">
-        <v>15.78</v>
+        <v>110.49</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>1.58</v>
+        <v>11.05</v>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
@@ -260,11 +260,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45851.926469907405</v>
+        <v>45855.97508101852</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.420050</t>
+          <t>M.15608.6407.418191</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -283,14 +283,14 @@
         </is>
       </c>
       <c r="F4" s="6" t="n">
-        <v>119.96</v>
+        <v>67.07</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>12.0</v>
+        <v>6.71</v>
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I4" s="9" t="inlineStr">
@@ -301,11 +301,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45851.91243055555</v>
+        <v>45855.95353009259</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.402407</t>
+          <t>M.15608.6407.391793</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -324,14 +324,14 @@
         </is>
       </c>
       <c r="F5" s="6" t="n">
-        <v>74.54</v>
+        <v>15.78</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>7.45</v>
+        <v>1.58</v>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I5" s="9" t="inlineStr">
@@ -342,11 +342,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45851.85461805556</v>
+        <v>45855.90982638889</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.246914</t>
+          <t>M.15608.6407.334087</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -365,10 +365,10 @@
         </is>
       </c>
       <c r="F6" s="6" t="n">
-        <v>110.49</v>
+        <v>48.93</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>11.05</v>
+        <v>4.89</v>
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
@@ -383,11 +383,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45851.79399305556</v>
+        <v>45855.88318287037</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.181402</t>
+          <t>M.15608.6407.300978</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -406,14 +406,14 @@
         </is>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48.93</v>
+        <v>39.46</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>4.89</v>
+        <v>3.95</v>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I7" s="9" t="inlineStr">
@@ -424,11 +424,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45851.77085648148</v>
+        <v>45855.86167824074</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.154495</t>
+          <t>M.15608.6407.277479</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -447,14 +447,14 @@
         </is>
       </c>
       <c r="F8" s="6" t="n">
-        <v>108.05</v>
+        <v>48.93</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>10.81</v>
+        <v>4.89</v>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I8" s="9" t="inlineStr">
@@ -465,11 +465,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45851.76825231482</v>
+        <v>45855.84611111111</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.151474</t>
+          <t>M.15608.6407.260584</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -488,14 +488,14 @@
         </is>
       </c>
       <c r="F9" s="6" t="n">
-        <v>108.05</v>
+        <v>28.41</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>10.81</v>
+        <v>2.84</v>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I9" s="9" t="inlineStr">
@@ -506,11 +506,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45851.737233796295</v>
+        <v>45855.81631944444</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.124642</t>
+          <t>M.15608.6407.225301</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -529,14 +529,14 @@
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>50.51</v>
+        <v>47.35</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>5.05</v>
+        <v>4.74</v>
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I10" s="9" t="inlineStr">
@@ -547,11 +547,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45851.65230324074</v>
+        <v>45855.805</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.62374</t>
+          <t>M.15608.6407.214045</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15.78</v>
+        <v>47.35</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>1.58</v>
+        <v>4.74</v>
       </c>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I11" s="9" t="inlineStr">
@@ -588,11 +588,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45851.599699074075</v>
+        <v>45855.78959490741</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.38588</t>
+          <t>M.15608.6407.194955</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -611,14 +611,14 @@
         </is>
       </c>
       <c r="F12" s="6" t="n">
-        <v>119.96</v>
+        <v>62.61</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>12.0</v>
+        <v>6.26</v>
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I12" s="9" t="inlineStr">
@@ -629,11 +629,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45851.59792824074</v>
+        <v>45855.76158564815</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.37501</t>
+          <t>M.15608.6407.155788</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="F13" s="6" t="n">
-        <v>14.91</v>
+        <v>104.35</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>1.49</v>
+        <v>10.44</v>
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
@@ -670,11 +670,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45851.58495370371</v>
+        <v>45855.726689814815</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.32423</t>
+          <t>M.15608.6407.126169</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -693,14 +693,14 @@
         </is>
       </c>
       <c r="F14" s="6" t="n">
-        <v>93.13</v>
+        <v>47.35</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>9.31</v>
+        <v>4.74</v>
       </c>
       <c r="H14" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I14" s="9" t="inlineStr">
@@ -711,11 +711,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45851.545023148145</v>
+        <v>45855.7025462963</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.18637</t>
+          <t>M.15608.6407.103230</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -752,11 +752,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45851.52422453704</v>
+        <v>45855.58826388889</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.12268</t>
+          <t>M.15608.6407.35562</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -775,14 +775,14 @@
         </is>
       </c>
       <c r="F16" s="6" t="n">
-        <v>75.77</v>
+        <v>65.59</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>7.58</v>
+        <v>6.56</v>
       </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I16" s="9" t="inlineStr">
@@ -793,11 +793,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45851.52402777778</v>
+        <v>45855.58017361111</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6403.12246</t>
+          <t>M.15608.6407.32514</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -816,14 +816,14 @@
         </is>
       </c>
       <c r="F17" s="6" t="n">
-        <v>50.51</v>
+        <v>40.42</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>5.05</v>
+        <v>4.04</v>
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D24</t>
         </is>
       </c>
       <c r="I17" s="9" t="inlineStr">
@@ -834,11 +834,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45851.42753472222</v>
+        <v>45855.4909375</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.1180296</t>
+          <t>M.15608.6406.1333997</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -857,14 +857,14 @@
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>77.25</v>
+        <v>25.26</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>7.72</v>
+        <v>2.53</v>
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
-          <t>D27</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I18" s="9" t="inlineStr">
@@ -875,11 +875,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45851.41206018518</v>
+        <v>45855.46099537037</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.1169838</t>
+          <t>M.15608.6406.1314899</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -898,14 +898,14 @@
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15.78</v>
+        <v>104.35</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>1.58</v>
+        <v>10.44</v>
       </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I19" s="9" t="inlineStr">
@@ -916,11 +916,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45851.236655092594</v>
+        <v>45855.44005787037</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.926242</t>
+          <t>M.15608.6406.1284336</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -939,14 +939,14 @@
         </is>
       </c>
       <c r="F20" s="6" t="n">
-        <v>101.02</v>
+        <v>110.49</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>10.1</v>
+        <v>11.05</v>
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I20" s="9" t="inlineStr">
@@ -957,11 +957,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45851.14449074074</v>
+        <v>45855.192094907405</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.831485</t>
+          <t>M.15608.6406.947255</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -980,14 +980,14 @@
         </is>
       </c>
       <c r="F21" s="6" t="n">
-        <v>93.13</v>
+        <v>22.1</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>9.31</v>
+        <v>2.21</v>
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I21" s="9" t="inlineStr">
@@ -998,11 +998,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45851.086388888885</v>
+        <v>45855.16092592593</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.653779</t>
+          <t>M.15608.6406.915538</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1021,14 +1021,14 @@
         </is>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14.91</v>
+        <v>45.78</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>1.49</v>
+        <v>4.58</v>
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I22" s="9" t="inlineStr">
@@ -1039,11 +1039,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45850.935115740744</v>
+        <v>45855.138344907406</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.465027</t>
+          <t>M.15608.6406.767715</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F23" s="6" t="n">
-        <v>42.59</v>
+        <v>44.2</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>4.26</v>
+        <v>4.42</v>
       </c>
       <c r="H23" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I23" s="9" t="inlineStr">
@@ -1080,11 +1080,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45850.899305555555</v>
+        <v>45855.12229166667</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.421674</t>
+          <t>M.15608.6406.735921</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1103,14 +1103,14 @@
         </is>
       </c>
       <c r="F24" s="6" t="n">
-        <v>116.81</v>
+        <v>15.78</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>11.68</v>
+        <v>1.58</v>
       </c>
       <c r="H24" s="8" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I24" s="9" t="inlineStr">
@@ -1121,11 +1121,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45850.88246527778</v>
+        <v>45855.09248842593</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.399319</t>
+          <t>M.15608.6406.696777</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="F25" s="6" t="n">
-        <v>56.82</v>
+        <v>71.03</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>5.68</v>
+        <v>7.1</v>
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
@@ -1162,11 +1162,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45850.831030092595</v>
+        <v>45855.04392361111</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.282715</t>
+          <t>M.15608.6406.637271</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1185,14 +1185,14 @@
         </is>
       </c>
       <c r="F26" s="6" t="n">
-        <v>69.45</v>
+        <v>37.88</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>6.95</v>
+        <v>3.79</v>
       </c>
       <c r="H26" s="8" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I26" s="9" t="inlineStr">
@@ -1203,11 +1203,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45850.74783564815</v>
+        <v>45854.97765046296</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.149536</t>
+          <t>M.15608.6406.547177</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="F27" s="6" t="n">
-        <v>39.46</v>
+        <v>31.57</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>3.95</v>
+        <v>3.16</v>
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
@@ -1244,11 +1244,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45850.72494212963</v>
+        <v>45854.96090277778</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.127177</t>
+          <t>M.15608.6406.526561</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="F28" s="6" t="n">
-        <v>116.81</v>
+        <v>41.74</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>11.68</v>
+        <v>4.17</v>
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I28" s="9" t="inlineStr">
@@ -1285,11 +1285,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45850.71711805555</v>
+        <v>45854.955104166664</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.119355</t>
+          <t>M.15608.6406.519516</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1326,11 +1326,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45850.62467592592</v>
+        <v>45854.95106481481</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.59321</t>
+          <t>M.15608.6406.512991</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15.78</v>
+        <v>31.57</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>1.58</v>
+        <v>3.16</v>
       </c>
       <c r="H30" s="8" t="inlineStr">
         <is>
@@ -1367,11 +1367,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45850.62458333333</v>
+        <v>45854.943240740744</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.59184</t>
+          <t>M.15608.6406.503532</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15.78</v>
+        <v>71.03</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>1.58</v>
+        <v>7.1</v>
       </c>
       <c r="H31" s="8" t="inlineStr">
         <is>
@@ -1408,11 +1408,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45850.590532407405</v>
+        <v>45854.91494212963</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.37707</t>
+          <t>M.15608.6406.463825</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1431,14 +1431,14 @@
         </is>
       </c>
       <c r="F32" s="6" t="n">
-        <v>63.14</v>
+        <v>39.46</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>6.31</v>
+        <v>3.95</v>
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I32" s="9" t="inlineStr">
@@ -1449,11 +1449,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45850.58923611111</v>
+        <v>45854.91373842592</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.37675</t>
+          <t>M.15608.6406.456181</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="F33" s="6" t="n">
-        <v>49.18</v>
+        <v>98.25</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>4.92</v>
+        <v>9.83</v>
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
@@ -1490,11 +1490,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45850.55815972222</v>
+        <v>45854.90484953704</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.25544</t>
+          <t>M.15608.6406.363967</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1513,14 +1513,14 @@
         </is>
       </c>
       <c r="F34" s="6" t="n">
-        <v>48.93</v>
+        <v>98.25</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>4.89</v>
+        <v>9.83</v>
       </c>
       <c r="H34" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I34" s="9" t="inlineStr">
@@ -1531,11 +1531,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45850.54299768519</v>
+        <v>45854.87836805556</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6402.18866</t>
+          <t>M.15608.6406.328789</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1554,14 +1554,14 @@
         </is>
       </c>
       <c r="F35" s="6" t="n">
-        <v>48.93</v>
+        <v>49.18</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>4.89</v>
+        <v>4.92</v>
       </c>
       <c r="H35" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I35" s="9" t="inlineStr">
@@ -1572,11 +1572,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45850.423171296294</v>
+        <v>45854.8702662037</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.1261247</t>
+          <t>M.15608.6406.318862</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="F36" s="6" t="n">
-        <v>15.78</v>
+        <v>37.88</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>1.58</v>
+        <v>3.79</v>
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
@@ -1613,11 +1613,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45850.422060185185</v>
+        <v>45854.80516203704</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.1261059</t>
+          <t>M.15608.6406.237430</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1636,14 +1636,14 @@
         </is>
       </c>
       <c r="F37" s="6" t="n">
-        <v>31.57</v>
+        <v>110.49</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>3.16</v>
+        <v>11.05</v>
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I37" s="9" t="inlineStr">
@@ -1654,11 +1654,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45850.41447916667</v>
+        <v>45854.67768518518</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.1170806</t>
+          <t>M.15608.6406.100697</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1677,14 +1677,14 @@
         </is>
       </c>
       <c r="F38" s="6" t="n">
-        <v>14.99</v>
+        <v>104.35</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>1.5</v>
+        <v>10.44</v>
       </c>
       <c r="H38" s="8" t="inlineStr">
         <is>
-          <t>D27</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I38" s="9" t="inlineStr">
@@ -1695,11 +1695,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45850.385104166664</v>
+        <v>45854.67659722222</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.1148631</t>
+          <t>M.15608.6406.98957</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="F39" s="6" t="n">
-        <v>113.65</v>
+        <v>110.49</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>11.36</v>
+        <v>11.05</v>
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
@@ -1736,11 +1736,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45850.144108796296</v>
+        <v>45854.67196759259</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.777415</t>
+          <t>M.15608.6406.97622</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1759,14 +1759,14 @@
         </is>
       </c>
       <c r="F40" s="6" t="n">
-        <v>48.93</v>
+        <v>186.26</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>4.89</v>
+        <v>18.63</v>
       </c>
       <c r="H40" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I40" s="9" t="inlineStr">
@@ -1777,11 +1777,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45850.13166666667</v>
+        <v>45854.63859953704</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.762970</t>
+          <t>M.15608.6406.79349</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1800,14 +1800,14 @@
         </is>
       </c>
       <c r="F41" s="6" t="n">
-        <v>47.35</v>
+        <v>53.67</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>4.74</v>
+        <v>5.37</v>
       </c>
       <c r="H41" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I41" s="9" t="inlineStr">
@@ -1818,11 +1818,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45850.12634259259</v>
+        <v>45854.58804398148</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.757932</t>
+          <t>M.15608.6406.46417</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -1841,14 +1841,14 @@
         </is>
       </c>
       <c r="F42" s="6" t="n">
-        <v>48.93</v>
+        <v>36.62</v>
       </c>
       <c r="G42" s="7" t="n">
-        <v>4.89</v>
+        <v>3.66</v>
       </c>
       <c r="H42" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I42" s="9" t="inlineStr">
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45850.08577546296</v>
+        <v>45854.405381944445</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.709104</t>
+          <t>M.15608.6405.1240487</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1882,14 +1882,14 @@
         </is>
       </c>
       <c r="F43" s="6" t="n">
-        <v>87.94</v>
+        <v>71.03</v>
       </c>
       <c r="G43" s="7" t="n">
-        <v>8.79</v>
+        <v>7.1</v>
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I43" s="9" t="inlineStr">
@@ -1900,11 +1900,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45850.038252314815</v>
+        <v>45854.3969212963</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.648655</t>
+          <t>M.15608.6405.1232757</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1923,14 +1923,14 @@
         </is>
       </c>
       <c r="F44" s="6" t="n">
-        <v>29.99</v>
+        <v>67.07</v>
       </c>
       <c r="G44" s="7" t="n">
-        <v>3.0</v>
+        <v>6.71</v>
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I44" s="9" t="inlineStr">
@@ -1941,11 +1941,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45849.969664351855</v>
+        <v>45854.30011574074</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.473508</t>
+          <t>M.15608.6405.1058251</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1964,14 +1964,14 @@
         </is>
       </c>
       <c r="F45" s="6" t="n">
-        <v>154.69</v>
+        <v>37.88</v>
       </c>
       <c r="G45" s="7" t="n">
-        <v>15.47</v>
+        <v>3.79</v>
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I45" s="9" t="inlineStr">
@@ -1982,11 +1982,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45849.969363425924</v>
+        <v>45854.29760416667</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.471686</t>
+          <t>M.15608.6405.1055475</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="F46" s="6" t="n">
-        <v>113.3</v>
+        <v>37.25</v>
       </c>
       <c r="G46" s="7" t="n">
-        <v>11.33</v>
+        <v>3.73</v>
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
@@ -2023,11 +2023,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45849.95523148148</v>
+        <v>45854.26159722222</v>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.453250</t>
+          <t>M.15608.6405.1019146</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
@@ -2046,14 +2046,14 @@
         </is>
       </c>
       <c r="F47" s="6" t="n">
-        <v>71.03</v>
+        <v>59.63</v>
       </c>
       <c r="G47" s="7" t="n">
-        <v>7.1</v>
+        <v>5.96</v>
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I47" s="9" t="inlineStr">
@@ -2064,11 +2064,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45849.942465277774</v>
+        <v>45854.25679398148</v>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.433310</t>
+          <t>M.15608.6405.1012893</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -2087,14 +2087,14 @@
         </is>
       </c>
       <c r="F48" s="6" t="n">
-        <v>113.3</v>
+        <v>94.71</v>
       </c>
       <c r="G48" s="7" t="n">
-        <v>11.33</v>
+        <v>9.47</v>
       </c>
       <c r="H48" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I48" s="9" t="inlineStr">
@@ -2105,11 +2105,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45849.93019675926</v>
+        <v>45854.230520833335</v>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.417225</t>
+          <t>M.15608.6405.984884</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="F49" s="6" t="n">
-        <v>26.83</v>
+        <v>50.51</v>
       </c>
       <c r="G49" s="7" t="n">
-        <v>2.68</v>
+        <v>5.05</v>
       </c>
       <c r="H49" s="8" t="inlineStr">
         <is>
@@ -2146,11 +2146,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45849.896261574075</v>
+        <v>45854.13945601852</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.370800</t>
+          <t>M.15608.6405.794690</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2169,14 +2169,14 @@
         </is>
       </c>
       <c r="F50" s="6" t="n">
-        <v>66.3</v>
+        <v>110.49</v>
       </c>
       <c r="G50" s="7" t="n">
-        <v>6.63</v>
+        <v>11.05</v>
       </c>
       <c r="H50" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I50" s="9" t="inlineStr">
@@ -2187,11 +2187,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45849.870300925926</v>
+        <v>45854.09494212963</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.334951</t>
+          <t>M.15608.6405.688412</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2210,14 +2210,14 @@
         </is>
       </c>
       <c r="F51" s="6" t="n">
-        <v>15.78</v>
+        <v>42.62</v>
       </c>
       <c r="G51" s="7" t="n">
-        <v>1.58</v>
+        <v>4.26</v>
       </c>
       <c r="H51" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I51" s="9" t="inlineStr">
@@ -2228,11 +2228,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45849.852106481485</v>
+        <v>45854.05326388889</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.311143</t>
+          <t>M.15608.6405.638896</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="F52" s="6" t="n">
-        <v>15.78</v>
+        <v>37.88</v>
       </c>
       <c r="G52" s="7" t="n">
-        <v>1.58</v>
+        <v>3.79</v>
       </c>
       <c r="H52" s="8" t="inlineStr">
         <is>
@@ -2269,11 +2269,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45849.84103009259</v>
+        <v>45853.98626157407</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.295740</t>
+          <t>M.15608.6405.550378</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2292,14 +2292,14 @@
         </is>
       </c>
       <c r="F53" s="6" t="n">
-        <v>15.78</v>
+        <v>37.88</v>
       </c>
       <c r="G53" s="7" t="n">
-        <v>1.58</v>
+        <v>3.79</v>
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I53" s="9" t="inlineStr">
@@ -2310,11 +2310,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45849.76020833333</v>
+        <v>45853.91762731481</v>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.181457</t>
+          <t>M.15608.6405.368655</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="F54" s="6" t="n">
-        <v>15.78</v>
+        <v>154.69</v>
       </c>
       <c r="G54" s="7" t="n">
-        <v>1.58</v>
+        <v>15.47</v>
       </c>
       <c r="H54" s="8" t="inlineStr">
         <is>
@@ -2351,11 +2351,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45849.743993055556</v>
+        <v>45853.809328703705</v>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.166228</t>
+          <t>M.15608.6405.231946</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2374,14 +2374,14 @@
         </is>
       </c>
       <c r="F55" s="6" t="n">
-        <v>38.58</v>
+        <v>29.82</v>
       </c>
       <c r="G55" s="7" t="n">
-        <v>3.86</v>
+        <v>2.98</v>
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>D27</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I55" s="9" t="inlineStr">
@@ -2392,11 +2392,11 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45849.72599537037</v>
+        <v>45853.72620370371</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.146225</t>
+          <t>M.15608.6405.130466</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="F56" s="6" t="n">
-        <v>154.69</v>
+        <v>17.36</v>
       </c>
       <c r="G56" s="7" t="n">
-        <v>15.47</v>
+        <v>1.74</v>
       </c>
       <c r="H56" s="8" t="inlineStr">
         <is>
@@ -2433,11 +2433,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45849.68457175926</v>
+        <v>45853.69190972222</v>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.104880</t>
+          <t>M.15608.6405.102969</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="F57" s="6" t="n">
-        <v>15.78</v>
+        <v>48.93</v>
       </c>
       <c r="G57" s="7" t="n">
-        <v>1.58</v>
+        <v>4.89</v>
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
@@ -2474,11 +2474,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45849.67833333334</v>
+        <v>45853.452997685185</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.99972</t>
+          <t>M.15608.6404.1241865</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2497,14 +2497,14 @@
         </is>
       </c>
       <c r="F58" s="6" t="n">
-        <v>15.78</v>
+        <v>104.35</v>
       </c>
       <c r="G58" s="7" t="n">
-        <v>1.58</v>
+        <v>10.44</v>
       </c>
       <c r="H58" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I58" s="9" t="inlineStr">
@@ -2515,11 +2515,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45849.62584490741</v>
+        <v>45853.44497685185</v>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.69745</t>
+          <t>M.15608.6404.1231467</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2538,14 +2538,14 @@
         </is>
       </c>
       <c r="F59" s="6" t="n">
-        <v>26.83</v>
+        <v>41.04</v>
       </c>
       <c r="G59" s="7" t="n">
-        <v>2.68</v>
+        <v>4.1</v>
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I59" s="9" t="inlineStr">
@@ -2556,11 +2556,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45849.594363425924</v>
+        <v>45853.16829861111</v>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.43269</t>
+          <t>M.15608.6404.878279</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2579,14 +2579,14 @@
         </is>
       </c>
       <c r="F60" s="6" t="n">
-        <v>29.99</v>
+        <v>32.8</v>
       </c>
       <c r="G60" s="7" t="n">
-        <v>3.0</v>
+        <v>3.28</v>
       </c>
       <c r="H60" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I60" s="9" t="inlineStr">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45849.516435185185</v>
+        <v>45853.08986111111</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.9182</t>
+          <t>M.15608.6404.641804</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2620,14 +2620,14 @@
         </is>
       </c>
       <c r="F61" s="6" t="n">
-        <v>124.7</v>
+        <v>98.39</v>
       </c>
       <c r="G61" s="7" t="n">
-        <v>12.47</v>
+        <v>9.84</v>
       </c>
       <c r="H61" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I61" s="9" t="inlineStr">
@@ -2638,11 +2638,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45849.51460648148</v>
+        <v>45853.016018518516</v>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6401.9087</t>
+          <t>M.15608.6404.470138</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2661,10 +2661,10 @@
         </is>
       </c>
       <c r="F62" s="6" t="n">
-        <v>124.7</v>
+        <v>132.59</v>
       </c>
       <c r="G62" s="7" t="n">
-        <v>12.47</v>
+        <v>13.26</v>
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45849.46864583333</v>
+        <v>45852.95358796296</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.1378857</t>
+          <t>M.15608.6404.393950</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -2702,14 +2702,14 @@
         </is>
       </c>
       <c r="F63" s="6" t="n">
-        <v>31.57</v>
+        <v>71.03</v>
       </c>
       <c r="G63" s="7" t="n">
-        <v>3.16</v>
+        <v>7.1</v>
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="I63" s="9" t="inlineStr">
@@ -2720,11 +2720,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45849.25334490741</v>
+        <v>45852.79440972222</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.1064727</t>
+          <t>M.15608.6404.201340</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2743,14 +2743,14 @@
         </is>
       </c>
       <c r="F64" s="6" t="n">
-        <v>71.03</v>
+        <v>119.26</v>
       </c>
       <c r="G64" s="7" t="n">
-        <v>7.1</v>
+        <v>11.93</v>
       </c>
       <c r="H64" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I64" s="9" t="inlineStr">
@@ -2761,11 +2761,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45849.18005787037</v>
+        <v>45852.78173611111</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.983652</t>
+          <t>M.15608.6404.187766</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2784,14 +2784,14 @@
         </is>
       </c>
       <c r="F65" s="6" t="n">
-        <v>44.72</v>
+        <v>119.96</v>
       </c>
       <c r="G65" s="7" t="n">
-        <v>4.47</v>
+        <v>12.0</v>
       </c>
       <c r="H65" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I65" s="9" t="inlineStr">
@@ -2802,11 +2802,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45849.14672453704</v>
+        <v>45852.776921296296</v>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.946155</t>
+          <t>M.15608.6404.182786</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="F66" s="6" t="n">
-        <v>71.03</v>
+        <v>121.54</v>
       </c>
       <c r="G66" s="7" t="n">
-        <v>7.1</v>
+        <v>12.15</v>
       </c>
       <c r="H66" s="8" t="inlineStr">
         <is>
@@ -2843,11 +2843,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45849.13340277778</v>
+        <v>45852.74704861111</v>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.929389</t>
+          <t>M.15608.6404.148179</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
@@ -2866,14 +2866,14 @@
         </is>
       </c>
       <c r="F67" s="6" t="n">
-        <v>72.88</v>
+        <v>14.21</v>
       </c>
       <c r="G67" s="7" t="n">
-        <v>7.29</v>
+        <v>1.42</v>
       </c>
       <c r="H67" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I67" s="9" t="inlineStr">
@@ -2884,11 +2884,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45848.96451388889</v>
+        <v>45852.67109953704</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.574971</t>
+          <t>M.15608.6404.82117</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2907,10 +2907,10 @@
         </is>
       </c>
       <c r="F68" s="6" t="n">
-        <v>217.83</v>
+        <v>121.54</v>
       </c>
       <c r="G68" s="7" t="n">
-        <v>21.78</v>
+        <v>12.15</v>
       </c>
       <c r="H68" s="8" t="inlineStr">
         <is>
@@ -2925,11 +2925,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45848.86813657408</v>
+        <v>45852.578125</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.355466</t>
+          <t>M.15608.6404.34603</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2948,14 +2948,14 @@
         </is>
       </c>
       <c r="F69" s="6" t="n">
-        <v>75.77</v>
+        <v>25.26</v>
       </c>
       <c r="G69" s="7" t="n">
-        <v>7.58</v>
+        <v>2.53</v>
       </c>
       <c r="H69" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="I69" s="9" t="inlineStr">
@@ -2966,11 +2966,11 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45848.867106481484</v>
+        <v>45852.575520833336</v>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.353727</t>
+          <t>M.15608.6404.32906</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2989,14 +2989,14 @@
         </is>
       </c>
       <c r="F70" s="6" t="n">
-        <v>98.39</v>
+        <v>75.77</v>
       </c>
       <c r="G70" s="7" t="n">
-        <v>9.84</v>
+        <v>7.58</v>
       </c>
       <c r="H70" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I70" s="9" t="inlineStr">
@@ -3007,11 +3007,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45848.83394675926</v>
+        <v>45852.5659375</v>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.309073</t>
+          <t>M.15608.6404.28908</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
@@ -3030,14 +3030,14 @@
         </is>
       </c>
       <c r="F71" s="6" t="n">
-        <v>66.48</v>
+        <v>119.26</v>
       </c>
       <c r="G71" s="7" t="n">
-        <v>6.65</v>
+        <v>11.93</v>
       </c>
       <c r="H71" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I71" s="9" t="inlineStr">
@@ -3048,11 +3048,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45848.810578703706</v>
+        <v>45852.564259259256</v>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.275723</t>
+          <t>M.15608.6404.28711</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="F72" s="6" t="n">
-        <v>95.41</v>
+        <v>74.54</v>
       </c>
       <c r="G72" s="7" t="n">
-        <v>9.54</v>
+        <v>7.45</v>
       </c>
       <c r="H72" s="8" t="inlineStr">
         <is>
@@ -3089,11 +3089,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45848.667233796295</v>
+        <v>45852.55903935185</v>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.93296</t>
+          <t>M.15608.6404.26265</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -3112,14 +3112,14 @@
         </is>
       </c>
       <c r="F73" s="6" t="n">
-        <v>110.49</v>
+        <v>41.04</v>
       </c>
       <c r="G73" s="7" t="n">
-        <v>11.05</v>
+        <v>4.1</v>
       </c>
       <c r="H73" s="8" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I73" s="9" t="inlineStr">
@@ -3130,11 +3130,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45848.657789351855</v>
+        <v>45852.55385416667</v>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.87154</t>
+          <t>M.15608.6404.24653</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3153,14 +3153,14 @@
         </is>
       </c>
       <c r="F74" s="6" t="n">
-        <v>110.49</v>
+        <v>25.26</v>
       </c>
       <c r="G74" s="7" t="n">
-        <v>11.05</v>
+        <v>2.53</v>
       </c>
       <c r="H74" s="8" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I74" s="9" t="inlineStr">
@@ -3171,11 +3171,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45848.65526620371</v>
+        <v>45852.42901620371</v>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.89258</t>
+          <t>M.15608.6403.1159843</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -3194,14 +3194,14 @@
         </is>
       </c>
       <c r="F75" s="6" t="n">
-        <v>95.41</v>
+        <v>110.49</v>
       </c>
       <c r="G75" s="7" t="n">
-        <v>9.54</v>
+        <v>11.05</v>
       </c>
       <c r="H75" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I75" s="9" t="inlineStr">
@@ -3212,11 +3212,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45848.64959490741</v>
+        <v>45852.38611111111</v>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.87347</t>
+          <t>M.15608.6403.1133406</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3235,14 +3235,14 @@
         </is>
       </c>
       <c r="F76" s="6" t="n">
-        <v>110.49</v>
+        <v>71.03</v>
       </c>
       <c r="G76" s="7" t="n">
-        <v>11.05</v>
+        <v>7.1</v>
       </c>
       <c r="H76" s="8" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I76" s="9" t="inlineStr">
@@ -3253,11 +3253,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45848.64258101852</v>
+        <v>45852.38138888889</v>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.76700</t>
+          <t>M.15608.6403.1130911</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="F77" s="6" t="n">
-        <v>37.88</v>
+        <v>71.03</v>
       </c>
       <c r="G77" s="7" t="n">
-        <v>3.79</v>
+        <v>7.1</v>
       </c>
       <c r="H77" s="8" t="inlineStr">
         <is>
@@ -3294,11 +3294,11 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45848.609872685185</v>
+        <v>45852.37126157407</v>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.54409</t>
+          <t>M.15608.6403.1125629</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -3317,14 +3317,14 @@
         </is>
       </c>
       <c r="F78" s="6" t="n">
-        <v>15.78</v>
+        <v>62.61</v>
       </c>
       <c r="G78" s="7" t="n">
-        <v>1.58</v>
+        <v>6.26</v>
       </c>
       <c r="H78" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I78" s="9" t="inlineStr">
@@ -3335,11 +3335,11 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45848.60434027778</v>
+        <v>45852.3497337963</v>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.50233</t>
+          <t>M.15608.6403.1008764</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="F79" s="6" t="n">
-        <v>14.91</v>
+        <v>99.32</v>
       </c>
       <c r="G79" s="7" t="n">
-        <v>1.49</v>
+        <v>9.93</v>
       </c>
       <c r="H79" s="8" t="inlineStr">
         <is>
@@ -3376,11 +3376,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45848.58819444444</v>
+        <v>45852.10466435185</v>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.42571</t>
+          <t>M.15608.6403.768285</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
@@ -3399,14 +3399,14 @@
         </is>
       </c>
       <c r="F80" s="6" t="n">
-        <v>37.88</v>
+        <v>110.49</v>
       </c>
       <c r="G80" s="7" t="n">
-        <v>3.79</v>
+        <v>11.05</v>
       </c>
       <c r="H80" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I80" s="9" t="inlineStr">
@@ -3417,11 +3417,11 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45848.58693287037</v>
+        <v>45852.10240740741</v>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.41618</t>
+          <t>M.15608.6403.765473</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3440,14 +3440,14 @@
         </is>
       </c>
       <c r="F81" s="6" t="n">
-        <v>45.78</v>
+        <v>186.26</v>
       </c>
       <c r="G81" s="7" t="n">
-        <v>4.58</v>
+        <v>18.63</v>
       </c>
       <c r="H81" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I81" s="9" t="inlineStr">
@@ -3458,11 +3458,11 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45848.56513888889</v>
+        <v>45852.054664351854</v>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.31555</t>
+          <t>M.15608.6403.578476</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3481,14 +3481,14 @@
         </is>
       </c>
       <c r="F82" s="6" t="n">
-        <v>125.23</v>
+        <v>72.61</v>
       </c>
       <c r="G82" s="7" t="n">
-        <v>12.52</v>
+        <v>7.26</v>
       </c>
       <c r="H82" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I82" s="9" t="inlineStr">
@@ -3499,11 +3499,11 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45848.51225694444</v>
+        <v>45851.954884259256</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6400.8640</t>
+          <t>M.15608.6403.454694</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3522,14 +3522,14 @@
         </is>
       </c>
       <c r="F83" s="6" t="n">
-        <v>15.78</v>
+        <v>71.03</v>
       </c>
       <c r="G83" s="7" t="n">
-        <v>1.58</v>
+        <v>7.1</v>
       </c>
       <c r="H83" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I83" s="9" t="inlineStr">
@@ -3540,11 +3540,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45848.496157407404</v>
+        <v>45851.93200231482</v>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.1436474</t>
+          <t>M.15608.6403.425711</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -3563,14 +3563,14 @@
         </is>
       </c>
       <c r="F84" s="6" t="n">
-        <v>55.14</v>
+        <v>15.78</v>
       </c>
       <c r="G84" s="7" t="n">
-        <v>5.51</v>
+        <v>1.58</v>
       </c>
       <c r="H84" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I84" s="9" t="inlineStr">
@@ -3581,11 +3581,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45848.43304398148</v>
+        <v>45851.926469907405</v>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.1368338</t>
+          <t>M.15608.6403.420050</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -3604,14 +3604,14 @@
         </is>
       </c>
       <c r="F85" s="6" t="n">
-        <v>104.35</v>
+        <v>119.96</v>
       </c>
       <c r="G85" s="7" t="n">
-        <v>10.44</v>
+        <v>12.0</v>
       </c>
       <c r="H85" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I85" s="9" t="inlineStr">
@@ -3622,11 +3622,11 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45848.40059027778</v>
+        <v>45851.91243055555</v>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.1339588</t>
+          <t>M.15608.6403.402407</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -3645,14 +3645,14 @@
         </is>
       </c>
       <c r="F86" s="6" t="n">
-        <v>52.09</v>
+        <v>74.54</v>
       </c>
       <c r="G86" s="7" t="n">
-        <v>5.21</v>
+        <v>7.45</v>
       </c>
       <c r="H86" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I86" s="9" t="inlineStr">
@@ -3663,11 +3663,11 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45848.304143518515</v>
+        <v>45851.85461805556</v>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.1124512</t>
+          <t>M.15608.6403.246914</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -3686,14 +3686,14 @@
         </is>
       </c>
       <c r="F87" s="6" t="n">
-        <v>59.63</v>
+        <v>110.49</v>
       </c>
       <c r="G87" s="7" t="n">
-        <v>5.96</v>
+        <v>11.05</v>
       </c>
       <c r="H87" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I87" s="9" t="inlineStr">
@@ -3704,11 +3704,11 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45848.02377314815</v>
+        <v>45851.79399305556</v>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.639617</t>
+          <t>M.15608.6403.181402</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -3727,14 +3727,14 @@
         </is>
       </c>
       <c r="F88" s="6" t="n">
-        <v>95.41</v>
+        <v>48.93</v>
       </c>
       <c r="G88" s="7" t="n">
-        <v>9.54</v>
+        <v>4.89</v>
       </c>
       <c r="H88" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I88" s="9" t="inlineStr">
@@ -3745,11 +3745,11 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45848.02303240741</v>
+        <v>45851.77085648148</v>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.638492</t>
+          <t>M.15608.6403.154495</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -3768,10 +3768,10 @@
         </is>
       </c>
       <c r="F89" s="6" t="n">
-        <v>125.23</v>
+        <v>108.05</v>
       </c>
       <c r="G89" s="7" t="n">
-        <v>12.52</v>
+        <v>10.81</v>
       </c>
       <c r="H89" s="8" t="inlineStr">
         <is>
@@ -3786,11 +3786,11 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45847.99365740741</v>
+        <v>45851.76825231482</v>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.598532</t>
+          <t>M.15608.6403.151474</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="F90" s="6" t="n">
-        <v>95.41</v>
+        <v>108.05</v>
       </c>
       <c r="G90" s="7" t="n">
-        <v>9.54</v>
+        <v>10.81</v>
       </c>
       <c r="H90" s="8" t="inlineStr">
         <is>
@@ -3827,11 +3827,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45847.92157407408</v>
+        <v>45851.737233796295</v>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.393965</t>
+          <t>M.15608.6403.124642</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -3850,14 +3850,14 @@
         </is>
       </c>
       <c r="F91" s="6" t="n">
-        <v>72.61</v>
+        <v>50.51</v>
       </c>
       <c r="G91" s="7" t="n">
-        <v>7.26</v>
+        <v>5.05</v>
       </c>
       <c r="H91" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I91" s="9" t="inlineStr">
@@ -3868,11 +3868,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45847.90173611111</v>
+        <v>45851.65230324074</v>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.372448</t>
+          <t>M.15608.6403.62374</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -3891,14 +3891,14 @@
         </is>
       </c>
       <c r="F92" s="6" t="n">
-        <v>41.04</v>
+        <v>15.78</v>
       </c>
       <c r="G92" s="7" t="n">
-        <v>4.1</v>
+        <v>1.58</v>
       </c>
       <c r="H92" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I92" s="9" t="inlineStr">
@@ -3909,11 +3909,11 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45847.86541666667</v>
+        <v>45851.599699074075</v>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.330342</t>
+          <t>M.15608.6403.38588</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -3932,14 +3932,14 @@
         </is>
       </c>
       <c r="F93" s="6" t="n">
-        <v>154.69</v>
+        <v>119.96</v>
       </c>
       <c r="G93" s="7" t="n">
-        <v>15.47</v>
+        <v>12.0</v>
       </c>
       <c r="H93" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I93" s="9" t="inlineStr">
@@ -3950,11 +3950,11 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45847.829363425924</v>
+        <v>45851.59792824074</v>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.278506</t>
+          <t>M.15608.6403.37501</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -3973,14 +3973,14 @@
         </is>
       </c>
       <c r="F94" s="6" t="n">
-        <v>37.88</v>
+        <v>14.91</v>
       </c>
       <c r="G94" s="7" t="n">
-        <v>3.79</v>
+        <v>1.49</v>
       </c>
       <c r="H94" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I94" s="9" t="inlineStr">
@@ -3991,11 +3991,11 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45847.81895833334</v>
+        <v>45851.58495370371</v>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.266072</t>
+          <t>M.15608.6403.32423</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="F95" s="6" t="n">
-        <v>82.08</v>
+        <v>93.13</v>
       </c>
       <c r="G95" s="7" t="n">
-        <v>8.21</v>
+        <v>9.31</v>
       </c>
       <c r="H95" s="8" t="inlineStr">
         <is>
@@ -4032,11 +4032,11 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45847.76207175926</v>
+        <v>45851.545023148145</v>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.184850</t>
+          <t>M.15608.6403.18637</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -4055,14 +4055,14 @@
         </is>
       </c>
       <c r="F96" s="6" t="n">
-        <v>37.88</v>
+        <v>110.49</v>
       </c>
       <c r="G96" s="7" t="n">
-        <v>3.79</v>
+        <v>11.05</v>
       </c>
       <c r="H96" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I96" s="9" t="inlineStr">
@@ -4073,11 +4073,11 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45847.72141203703</v>
+        <v>45851.52422453704</v>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.139809</t>
+          <t>M.15608.6403.12268</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4096,14 +4096,14 @@
         </is>
       </c>
       <c r="F97" s="6" t="n">
-        <v>25.26</v>
+        <v>75.77</v>
       </c>
       <c r="G97" s="7" t="n">
-        <v>2.53</v>
+        <v>7.58</v>
       </c>
       <c r="H97" s="8" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I97" s="9" t="inlineStr">
@@ -4114,11 +4114,11 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45847.702060185184</v>
+        <v>45851.52402777778</v>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>15608.6399.121097</t>
+          <t>M.15608.6403.12246</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E98" s="5" t="inlineStr">
@@ -4137,14 +4137,14 @@
         </is>
       </c>
       <c r="F98" s="6" t="n">
-        <v>110.49</v>
+        <v>50.51</v>
       </c>
       <c r="G98" s="7" t="n">
-        <v>11.05</v>
+        <v>5.05</v>
       </c>
       <c r="H98" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I98" s="9" t="inlineStr">
@@ -4155,11 +4155,11 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45847.69519675926</v>
+        <v>45851.42753472222</v>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.114963</t>
+          <t>M.15608.6402.1180296</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -4178,14 +4178,14 @@
         </is>
       </c>
       <c r="F99" s="6" t="n">
-        <v>47.35</v>
+        <v>77.25</v>
       </c>
       <c r="G99" s="7" t="n">
-        <v>4.74</v>
+        <v>7.72</v>
       </c>
       <c r="H99" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D27</t>
         </is>
       </c>
       <c r="I99" s="9" t="inlineStr">
@@ -4196,11 +4196,11 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45847.62604166667</v>
+        <v>45851.41206018518</v>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.63244</t>
+          <t>M.15608.6402.1169838</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -4219,14 +4219,14 @@
         </is>
       </c>
       <c r="F100" s="6" t="n">
-        <v>34.73</v>
+        <v>15.78</v>
       </c>
       <c r="G100" s="7" t="n">
-        <v>3.47</v>
+        <v>1.58</v>
       </c>
       <c r="H100" s="8" t="inlineStr">
         <is>
-          <t>D25</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I100" s="9" t="inlineStr">
@@ -4237,11 +4237,11 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45847.622152777774</v>
+        <v>45851.236655092594</v>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.60294</t>
+          <t>M.15608.6402.926242</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -4260,14 +4260,14 @@
         </is>
       </c>
       <c r="F101" s="6" t="n">
-        <v>37.88</v>
+        <v>101.02</v>
       </c>
       <c r="G101" s="7" t="n">
-        <v>3.79</v>
+        <v>10.1</v>
       </c>
       <c r="H101" s="8" t="inlineStr">
         <is>
-          <t>D25</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I101" s="9" t="inlineStr">
@@ -4278,11 +4278,11 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45847.61163194444</v>
+        <v>45851.14449074074</v>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.55913</t>
+          <t>M.15608.6402.831485</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -4301,14 +4301,14 @@
         </is>
       </c>
       <c r="F102" s="6" t="n">
-        <v>15.78</v>
+        <v>93.13</v>
       </c>
       <c r="G102" s="7" t="n">
-        <v>1.58</v>
+        <v>9.31</v>
       </c>
       <c r="H102" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I102" s="9" t="inlineStr">
@@ -4319,11 +4319,11 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45847.59730324074</v>
+        <v>45851.086388888885</v>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6399.48046</t>
+          <t>M.15608.6402.653779</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E103" s="5" t="inlineStr">
@@ -4342,14 +4342,14 @@
         </is>
       </c>
       <c r="F103" s="6" t="n">
-        <v>29.99</v>
+        <v>14.91</v>
       </c>
       <c r="G103" s="7" t="n">
-        <v>3.0</v>
+        <v>1.49</v>
       </c>
       <c r="H103" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I103" s="9" t="inlineStr">
@@ -4360,11 +4360,11 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45847.45967592593</v>
+        <v>45850.935115740744</v>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.1398090</t>
+          <t>M.15608.6402.465027</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E104" s="5" t="inlineStr">
@@ -4383,14 +4383,14 @@
         </is>
       </c>
       <c r="F104" s="6" t="n">
-        <v>41.04</v>
+        <v>42.59</v>
       </c>
       <c r="G104" s="7" t="n">
-        <v>4.1</v>
+        <v>4.26</v>
       </c>
       <c r="H104" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I104" s="9" t="inlineStr">
@@ -4401,11 +4401,11 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45847.44862268519</v>
+        <v>45850.899305555555</v>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.1376936</t>
+          <t>M.15608.6402.421674</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -4424,14 +4424,14 @@
         </is>
       </c>
       <c r="F105" s="6" t="n">
-        <v>28.41</v>
+        <v>116.81</v>
       </c>
       <c r="G105" s="7" t="n">
-        <v>2.84</v>
+        <v>11.68</v>
       </c>
       <c r="H105" s="8" t="inlineStr">
         <is>
-          <t>D18</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="I105" s="9" t="inlineStr">
@@ -4442,11 +4442,11 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45847.370162037034</v>
+        <v>45850.88246527778</v>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.1337893</t>
+          <t>M.15608.6402.399319</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -4465,10 +4465,10 @@
         </is>
       </c>
       <c r="F106" s="6" t="n">
-        <v>14.21</v>
+        <v>56.82</v>
       </c>
       <c r="G106" s="7" t="n">
-        <v>1.42</v>
+        <v>5.68</v>
       </c>
       <c r="H106" s="8" t="inlineStr">
         <is>
@@ -4483,11 +4483,11 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45847.23193287037</v>
+        <v>45850.831030092595</v>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>15608.6398.1041784</t>
+          <t>M.15608.6402.282715</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E107" s="5" t="inlineStr">
@@ -4506,14 +4506,14 @@
         </is>
       </c>
       <c r="F107" s="6" t="n">
-        <v>101.02</v>
+        <v>69.45</v>
       </c>
       <c r="G107" s="7" t="n">
-        <v>10.1</v>
+        <v>6.95</v>
       </c>
       <c r="H107" s="8" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="I107" s="9" t="inlineStr">
@@ -4524,11 +4524,11 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45847.17340277778</v>
+        <v>45850.74783564815</v>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.974206</t>
+          <t>M.15608.6402.149536</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E108" s="5" t="inlineStr">
@@ -4547,14 +4547,14 @@
         </is>
       </c>
       <c r="F108" s="6" t="n">
-        <v>14.21</v>
+        <v>39.46</v>
       </c>
       <c r="G108" s="7" t="n">
-        <v>1.42</v>
+        <v>3.95</v>
       </c>
       <c r="H108" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I108" s="9" t="inlineStr">
@@ -4565,11 +4565,11 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45847.14748842592</v>
+        <v>45850.72494212963</v>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.946701</t>
+          <t>M.15608.6402.127177</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -4588,14 +4588,14 @@
         </is>
       </c>
       <c r="F109" s="6" t="n">
-        <v>67.07</v>
+        <v>116.81</v>
       </c>
       <c r="G109" s="7" t="n">
-        <v>6.71</v>
+        <v>11.68</v>
       </c>
       <c r="H109" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I109" s="9" t="inlineStr">
@@ -4606,11 +4606,11 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45847.14675925926</v>
+        <v>45850.71711805555</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.946679</t>
+          <t>M.15608.6402.119355</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="F110" s="6" t="n">
-        <v>119.96</v>
+        <v>37.88</v>
       </c>
       <c r="G110" s="7" t="n">
-        <v>12.0</v>
+        <v>3.79</v>
       </c>
       <c r="H110" s="8" t="inlineStr">
         <is>
@@ -4647,11 +4647,11 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45847.12962962963</v>
+        <v>45850.62467592592</v>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.926100</t>
+          <t>M.15608.6402.59321</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -4670,14 +4670,14 @@
         </is>
       </c>
       <c r="F111" s="6" t="n">
-        <v>48.93</v>
+        <v>15.78</v>
       </c>
       <c r="G111" s="7" t="n">
-        <v>4.89</v>
+        <v>1.58</v>
       </c>
       <c r="H111" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I111" s="9" t="inlineStr">
@@ -4688,11 +4688,11 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45847.0962037037</v>
+        <v>45850.62458333333</v>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.740154</t>
+          <t>M.15608.6402.59184</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -4711,14 +4711,14 @@
         </is>
       </c>
       <c r="F112" s="6" t="n">
-        <v>99.86</v>
+        <v>15.78</v>
       </c>
       <c r="G112" s="7" t="n">
-        <v>9.99</v>
+        <v>1.58</v>
       </c>
       <c r="H112" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I112" s="9" t="inlineStr">
@@ -4729,11 +4729,11 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45847.05211805556</v>
+        <v>45850.590532407405</v>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.685979</t>
+          <t>M.15608.6402.37707</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -4752,14 +4752,14 @@
         </is>
       </c>
       <c r="F113" s="6" t="n">
-        <v>14.21</v>
+        <v>63.14</v>
       </c>
       <c r="G113" s="7" t="n">
-        <v>1.42</v>
+        <v>6.31</v>
       </c>
       <c r="H113" s="8" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I113" s="9" t="inlineStr">
@@ -4770,11 +4770,11 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45846.82335648148</v>
+        <v>45850.58923611111</v>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.268660</t>
+          <t>M.15608.6402.37675</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -4793,14 +4793,14 @@
         </is>
       </c>
       <c r="F114" s="6" t="n">
-        <v>37.88</v>
+        <v>49.18</v>
       </c>
       <c r="G114" s="7" t="n">
-        <v>3.79</v>
+        <v>4.92</v>
       </c>
       <c r="H114" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I114" s="9" t="inlineStr">
@@ -4811,11 +4811,11 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45846.76975694444</v>
+        <v>45850.55815972222</v>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.185609</t>
+          <t>M.15608.6402.25544</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="F115" s="6" t="n">
-        <v>15.78</v>
+        <v>48.93</v>
       </c>
       <c r="G115" s="7" t="n">
-        <v>1.58</v>
+        <v>4.89</v>
       </c>
       <c r="H115" s="8" t="inlineStr">
         <is>
@@ -4852,11 +4852,11 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45846.69925925926</v>
+        <v>45850.54299768519</v>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.108792</t>
+          <t>M.15608.6402.18866</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E116" s="5" t="inlineStr">
@@ -4875,14 +4875,14 @@
         </is>
       </c>
       <c r="F116" s="6" t="n">
-        <v>15.78</v>
+        <v>48.93</v>
       </c>
       <c r="G116" s="7" t="n">
-        <v>1.58</v>
+        <v>4.89</v>
       </c>
       <c r="H116" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I116" s="9" t="inlineStr">
@@ -4893,11 +4893,11 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45846.683958333335</v>
+        <v>45850.423171296294</v>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.96535</t>
+          <t>M.15608.6401.1261247</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -4916,14 +4916,14 @@
         </is>
       </c>
       <c r="F117" s="6" t="n">
-        <v>34.73</v>
+        <v>15.78</v>
       </c>
       <c r="G117" s="7" t="n">
-        <v>3.47</v>
+        <v>1.58</v>
       </c>
       <c r="H117" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I117" s="9" t="inlineStr">
@@ -4934,11 +4934,11 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45846.676145833335</v>
+        <v>45850.422060185185</v>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.90149</t>
+          <t>M.15608.6401.1261059</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -4957,10 +4957,10 @@
         </is>
       </c>
       <c r="F118" s="6" t="n">
-        <v>33.15</v>
+        <v>31.57</v>
       </c>
       <c r="G118" s="7" t="n">
-        <v>3.31</v>
+        <v>3.16</v>
       </c>
       <c r="H118" s="8" t="inlineStr">
         <is>
@@ -4975,11 +4975,11 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45846.62756944444</v>
+        <v>45850.41447916667</v>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.58549</t>
+          <t>M.15608.6401.1170806</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -4998,14 +4998,14 @@
         </is>
       </c>
       <c r="F119" s="6" t="n">
-        <v>110.49</v>
+        <v>14.99</v>
       </c>
       <c r="G119" s="7" t="n">
-        <v>11.05</v>
+        <v>1.5</v>
       </c>
       <c r="H119" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>D27</t>
         </is>
       </c>
       <c r="I119" s="9" t="inlineStr">
@@ -5016,11 +5016,11 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45846.60743055555</v>
+        <v>45850.385104166664</v>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.46349</t>
+          <t>M.15608.6401.1148631</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -5039,10 +5039,10 @@
         </is>
       </c>
       <c r="F120" s="6" t="n">
-        <v>28.41</v>
+        <v>113.65</v>
       </c>
       <c r="G120" s="7" t="n">
-        <v>2.84</v>
+        <v>11.36</v>
       </c>
       <c r="H120" s="8" t="inlineStr">
         <is>
@@ -5057,11 +5057,11 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45846.59407407408</v>
+        <v>45850.144108796296</v>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.40149</t>
+          <t>M.15608.6401.777415</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -5080,14 +5080,14 @@
         </is>
       </c>
       <c r="F121" s="6" t="n">
-        <v>63.14</v>
+        <v>48.93</v>
       </c>
       <c r="G121" s="7" t="n">
-        <v>6.31</v>
+        <v>4.89</v>
       </c>
       <c r="H121" s="8" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I121" s="9" t="inlineStr">
@@ -5098,11 +5098,11 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45846.57666666667</v>
+        <v>45850.13166666667</v>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.33225</t>
+          <t>M.15608.6401.762970</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -5121,14 +5121,14 @@
         </is>
       </c>
       <c r="F122" s="6" t="n">
-        <v>35.78</v>
+        <v>47.35</v>
       </c>
       <c r="G122" s="7" t="n">
-        <v>3.58</v>
+        <v>4.74</v>
       </c>
       <c r="H122" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I122" s="9" t="inlineStr">
@@ -5139,11 +5139,11 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>45846.50662037037</v>
+        <v>45850.12634259259</v>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6398.4149</t>
+          <t>M.15608.6401.757932</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -5162,14 +5162,14 @@
         </is>
       </c>
       <c r="F123" s="6" t="n">
-        <v>104.35</v>
+        <v>48.93</v>
       </c>
       <c r="G123" s="7" t="n">
-        <v>10.44</v>
+        <v>4.89</v>
       </c>
       <c r="H123" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I123" s="9" t="inlineStr">
@@ -5180,11 +5180,11 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>45846.49947916667</v>
+        <v>45850.08577546296</v>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.1391753</t>
+          <t>M.15608.6401.709104</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -5203,14 +5203,14 @@
         </is>
       </c>
       <c r="F124" s="6" t="n">
-        <v>37.88</v>
+        <v>87.94</v>
       </c>
       <c r="G124" s="7" t="n">
-        <v>3.79</v>
+        <v>8.79</v>
       </c>
       <c r="H124" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I124" s="9" t="inlineStr">
@@ -5221,11 +5221,11 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>45846.394733796296</v>
+        <v>45850.038252314815</v>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.1297678</t>
+          <t>M.15608.6401.648655</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -5244,14 +5244,14 @@
         </is>
       </c>
       <c r="F125" s="6" t="n">
-        <v>28.41</v>
+        <v>29.99</v>
       </c>
       <c r="G125" s="7" t="n">
-        <v>2.84</v>
+        <v>3.0</v>
       </c>
       <c r="H125" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I125" s="9" t="inlineStr">
@@ -5262,11 +5262,11 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>45846.23474537037</v>
+        <v>45849.969664351855</v>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.1024895</t>
+          <t>M.15608.6401.473508</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -5285,14 +5285,14 @@
         </is>
       </c>
       <c r="F126" s="6" t="n">
-        <v>113.3</v>
+        <v>154.69</v>
       </c>
       <c r="G126" s="7" t="n">
-        <v>11.33</v>
+        <v>15.47</v>
       </c>
       <c r="H126" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I126" s="9" t="inlineStr">
@@ -5303,11 +5303,11 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>45846.19090277778</v>
+        <v>45849.969363425924</v>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.975169</t>
+          <t>M.15608.6401.471686</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E127" s="5" t="inlineStr">
@@ -5326,14 +5326,14 @@
         </is>
       </c>
       <c r="F127" s="6" t="n">
-        <v>113.65</v>
+        <v>113.3</v>
       </c>
       <c r="G127" s="7" t="n">
-        <v>11.37</v>
+        <v>11.33</v>
       </c>
       <c r="H127" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I127" s="9" t="inlineStr">
@@ -5344,11 +5344,11 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45846.175104166665</v>
+        <v>45849.95523148148</v>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.955340</t>
+          <t>M.15608.6401.453250</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E128" s="5" t="inlineStr">
@@ -5367,10 +5367,10 @@
         </is>
       </c>
       <c r="F128" s="6" t="n">
-        <v>113.65</v>
+        <v>71.03</v>
       </c>
       <c r="G128" s="7" t="n">
-        <v>11.37</v>
+        <v>7.1</v>
       </c>
       <c r="H128" s="8" t="inlineStr">
         <is>
@@ -5385,11 +5385,11 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45846.17173611111</v>
+        <v>45849.942465277774</v>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.950890</t>
+          <t>M.15608.6401.433310</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -5408,14 +5408,14 @@
         </is>
       </c>
       <c r="F129" s="6" t="n">
-        <v>14.21</v>
+        <v>113.3</v>
       </c>
       <c r="G129" s="7" t="n">
-        <v>1.42</v>
+        <v>11.33</v>
       </c>
       <c r="H129" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I129" s="9" t="inlineStr">
@@ -5426,11 +5426,11 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45846.16921296297</v>
+        <v>45849.93019675926</v>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.947676</t>
+          <t>M.15608.6401.417225</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -5449,14 +5449,14 @@
         </is>
       </c>
       <c r="F130" s="6" t="n">
-        <v>20.87</v>
+        <v>26.83</v>
       </c>
       <c r="G130" s="7" t="n">
-        <v>2.09</v>
+        <v>2.68</v>
       </c>
       <c r="H130" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I130" s="9" t="inlineStr">
@@ -5467,11 +5467,11 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45846.156851851854</v>
+        <v>45849.896261574075</v>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.932775</t>
+          <t>M.15608.6401.370800</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -5490,14 +5490,14 @@
         </is>
       </c>
       <c r="F131" s="6" t="n">
-        <v>26.83</v>
+        <v>66.3</v>
       </c>
       <c r="G131" s="7" t="n">
-        <v>2.68</v>
+        <v>6.63</v>
       </c>
       <c r="H131" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I131" s="9" t="inlineStr">
@@ -5508,11 +5508,11 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45846.09984953704</v>
+        <v>45849.870300925926</v>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.757697</t>
+          <t>M.15608.6401.334951</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -5531,14 +5531,14 @@
         </is>
       </c>
       <c r="F132" s="6" t="n">
-        <v>104.35</v>
+        <v>15.78</v>
       </c>
       <c r="G132" s="7" t="n">
-        <v>10.44</v>
+        <v>1.58</v>
       </c>
       <c r="H132" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I132" s="9" t="inlineStr">
@@ -5549,11 +5549,11 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45845.96824074074</v>
+        <v>45849.852106481485</v>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.528644</t>
+          <t>M.15608.6401.311143</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -5572,14 +5572,14 @@
         </is>
       </c>
       <c r="F133" s="6" t="n">
-        <v>104.36</v>
+        <v>15.78</v>
       </c>
       <c r="G133" s="7" t="n">
-        <v>10.44</v>
+        <v>1.58</v>
       </c>
       <c r="H133" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I133" s="9" t="inlineStr">
@@ -5590,11 +5590,11 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45845.87085648148</v>
+        <v>45849.84103009259</v>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.388550</t>
+          <t>M.15608.6401.295740</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -5613,14 +5613,14 @@
         </is>
       </c>
       <c r="F134" s="6" t="n">
-        <v>110.5</v>
+        <v>15.78</v>
       </c>
       <c r="G134" s="7" t="n">
-        <v>11.05</v>
+        <v>1.58</v>
       </c>
       <c r="H134" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I134" s="9" t="inlineStr">
@@ -5631,11 +5631,11 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45845.82994212963</v>
+        <v>45849.76020833333</v>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.253642</t>
+          <t>M.15608.6401.181457</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -5654,14 +5654,14 @@
         </is>
       </c>
       <c r="F135" s="6" t="n">
-        <v>29.99</v>
+        <v>15.78</v>
       </c>
       <c r="G135" s="7" t="n">
-        <v>3.0</v>
+        <v>1.58</v>
       </c>
       <c r="H135" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I135" s="9" t="inlineStr">
@@ -5672,11 +5672,11 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45845.817881944444</v>
+        <v>45849.743993055556</v>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.236696</t>
+          <t>M.15608.6401.166228</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -5695,14 +5695,14 @@
         </is>
       </c>
       <c r="F136" s="6" t="n">
-        <v>104.36</v>
+        <v>38.58</v>
       </c>
       <c r="G136" s="7" t="n">
-        <v>10.44</v>
+        <v>3.86</v>
       </c>
       <c r="H136" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D27</t>
         </is>
       </c>
       <c r="I136" s="9" t="inlineStr">
@@ -5713,11 +5713,11 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>45845.79362268518</v>
+        <v>45849.72599537037</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.205630</t>
+          <t>M.15608.6401.146225</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -5736,14 +5736,14 @@
         </is>
       </c>
       <c r="F137" s="6" t="n">
-        <v>104.36</v>
+        <v>154.69</v>
       </c>
       <c r="G137" s="7" t="n">
-        <v>10.44</v>
+        <v>15.47</v>
       </c>
       <c r="H137" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I137" s="9" t="inlineStr">
@@ -5754,11 +5754,11 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>45845.689930555556</v>
+        <v>45849.68457175926</v>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.96687</t>
+          <t>M.15608.6401.104880</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -5777,14 +5777,14 @@
         </is>
       </c>
       <c r="F138" s="6" t="n">
-        <v>15.79</v>
+        <v>15.78</v>
       </c>
       <c r="G138" s="7" t="n">
         <v>1.58</v>
       </c>
       <c r="H138" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I138" s="9" t="inlineStr">
@@ -5795,11 +5795,11 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>45845.63111111111</v>
+        <v>45849.67833333334</v>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.57669</t>
+          <t>M.15608.6401.99972</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -5818,10 +5818,10 @@
         </is>
       </c>
       <c r="F139" s="6" t="n">
-        <v>28.41</v>
+        <v>15.78</v>
       </c>
       <c r="G139" s="7" t="n">
-        <v>2.84</v>
+        <v>1.58</v>
       </c>
       <c r="H139" s="8" t="inlineStr">
         <is>
@@ -5836,11 +5836,11 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>45845.549375</v>
+        <v>45849.62584490741</v>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6397.21801</t>
+          <t>M.15608.6401.69745</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -5859,14 +5859,14 @@
         </is>
       </c>
       <c r="F140" s="6" t="n">
-        <v>14.21</v>
+        <v>26.83</v>
       </c>
       <c r="G140" s="7" t="n">
-        <v>1.42</v>
+        <v>2.68</v>
       </c>
       <c r="H140" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I140" s="9" t="inlineStr">
@@ -5877,11 +5877,11 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>45845.30353009259</v>
+        <v>45849.594363425924</v>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6396.1044415</t>
+          <t>M.15608.6401.43269</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -5900,14 +5900,14 @@
         </is>
       </c>
       <c r="F141" s="6" t="n">
-        <v>104.36</v>
+        <v>29.99</v>
       </c>
       <c r="G141" s="7" t="n">
-        <v>10.44</v>
+        <v>3.0</v>
       </c>
       <c r="H141" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I141" s="9" t="inlineStr">
@@ -5918,11 +5918,11 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>45845.15246527778</v>
+        <v>45849.516435185185</v>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6396.873216</t>
+          <t>M.15608.6401.9182</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -5941,14 +5941,14 @@
         </is>
       </c>
       <c r="F142" s="6" t="n">
-        <v>104.36</v>
+        <v>124.7</v>
       </c>
       <c r="G142" s="7" t="n">
-        <v>10.44</v>
+        <v>12.47</v>
       </c>
       <c r="H142" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I142" s="9" t="inlineStr">
@@ -5959,11 +5959,11 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>45845.12269675926</v>
+        <v>45849.51460648148</v>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6396.841510</t>
+          <t>M.15608.6401.9087</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -5982,14 +5982,14 @@
         </is>
       </c>
       <c r="F143" s="6" t="n">
-        <v>37.88</v>
+        <v>124.7</v>
       </c>
       <c r="G143" s="7" t="n">
-        <v>3.79</v>
+        <v>12.47</v>
       </c>
       <c r="H143" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I143" s="9" t="inlineStr">
@@ -6000,11 +6000,11 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45845.11274305556</v>
+        <v>45849.46864583333</v>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6396.830541</t>
+          <t>M.15608.6400.1378857</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="H144" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I144" s="9" t="inlineStr">
@@ -6040,43 +6040,207 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B145" s="12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C145" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D145" s="14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E145" s="15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F145" s="16" t="n">
-        <v>9062.15</v>
-      </c>
-      <c r="G145" s="17" t="n">
-        <v>906.28</v>
-      </c>
-      <c r="H145" s="18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I145" s="19" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>45849.25334490741</v>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6400.1064727</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t>Sale (iOS App)</t>
+        </is>
+      </c>
+      <c r="E145" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F145" s="6" t="n">
+        <v>71.03</v>
+      </c>
+      <c r="G145" s="7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H145" s="8" t="inlineStr">
+        <is>
+          <t>SAHS</t>
+        </is>
+      </c>
+      <c r="I145" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>45849.18005787037</v>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6400.983652</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>Sale (iOS App)</t>
+        </is>
+      </c>
+      <c r="E146" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F146" s="6" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="G146" s="7" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H146" s="8" t="inlineStr">
+        <is>
+          <t>SAHS15</t>
+        </is>
+      </c>
+      <c r="I146" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>45849.14672453704</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6400.946155</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D147" s="4" t="inlineStr">
+        <is>
+          <t>Sale (iOS App)</t>
+        </is>
+      </c>
+      <c r="E147" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F147" s="6" t="n">
+        <v>71.03</v>
+      </c>
+      <c r="G147" s="7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H147" s="8" t="inlineStr">
+        <is>
+          <t>SAHS</t>
+        </is>
+      </c>
+      <c r="I147" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>45849.13340277778</v>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6400.929389</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>Sale (Android App)</t>
+        </is>
+      </c>
+      <c r="E148" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F148" s="6" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="G148" s="7" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="H148" s="8" t="inlineStr">
+        <is>
+          <t>SAHS</t>
+        </is>
+      </c>
+      <c r="I148" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B149" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C149" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D149" s="14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E149" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F149" s="16" t="n">
+        <v>9648.44</v>
+      </c>
+      <c r="G149" s="17" t="n">
+        <v>964.93</v>
+      </c>
+      <c r="H149" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I149" s="19" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Updates/Input data/8682-AdvancedActionListi.xlsx
+++ b/Updates/Input data/8682-AdvancedActionListi.xlsx
@@ -123,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -178,11 +178,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45955.97105324074</v>
+        <v>45957.87008101852</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6507.659333</t>
+          <t>M.15608.6509.483847</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -201,14 +201,14 @@
         </is>
       </c>
       <c r="F2" s="6" t="n">
-        <v>44.72</v>
+        <v>78.92</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>4.47</v>
+        <v>7.89</v>
       </c>
       <c r="H2" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I2" s="9" t="inlineStr">
@@ -219,11 +219,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45955.847719907404</v>
+        <v>45957.73342592592</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6507.395050</t>
+          <t>M.15608.6509.183321</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -242,10 +242,10 @@
         </is>
       </c>
       <c r="F3" s="6" t="n">
-        <v>87.94</v>
+        <v>104.35</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>8.79</v>
+        <v>10.44</v>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
@@ -260,11 +260,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45955.39493055556</v>
+        <v>45957.62462962963</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.1443638</t>
+          <t>M.15608.6509.65463</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -283,14 +283,14 @@
         </is>
       </c>
       <c r="F4" s="6" t="n">
-        <v>87.94</v>
+        <v>34.73</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>8.79</v>
+        <v>3.47</v>
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I4" s="9" t="inlineStr">
@@ -301,11 +301,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45954.92899305555</v>
+        <v>45957.601851851854</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.583818</t>
+          <t>M.15608.6509.49402</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -324,14 +324,14 @@
         </is>
       </c>
       <c r="F5" s="6" t="n">
-        <v>81.96</v>
+        <v>14.21</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>8.2</v>
+        <v>1.42</v>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I5" s="9" t="inlineStr">
@@ -342,11 +342,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>45957.60162037037</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.459388</t>
+          <t>M.15608.6509.49340</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -365,10 +365,10 @@
         </is>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52.15</v>
+        <v>61.1</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>5.22</v>
+        <v>6.11</v>
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
@@ -383,11 +383,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45954.84951388889</v>
+        <v>45957.492939814816</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.405561</t>
+          <t>M.15608.6508.1758842</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -406,14 +406,14 @@
         </is>
       </c>
       <c r="F7" s="6" t="n">
-        <v>110.48</v>
+        <v>104.35</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>11.05</v>
+        <v>10.44</v>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I7" s="9" t="inlineStr">
@@ -424,11 +424,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45954.71026620371</v>
+        <v>45957.21574074074</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.159942</t>
+          <t>M.15608.6508.1354778</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="F8" s="6" t="n">
-        <v>14.2</v>
+        <v>115.23</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>1.42</v>
+        <v>11.52</v>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
@@ -465,11 +465,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45954.67798611111</v>
+        <v>45957.147824074076</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.113392</t>
+          <t>M.15608.6508.1186647</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="F9" s="6" t="n">
-        <v>14.2</v>
+        <v>75.77</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>1.42</v>
+        <v>7.58</v>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
@@ -506,11 +506,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45954.631006944444</v>
+        <v>45957.14303240741</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.72786</t>
+          <t>M.15608.6508.1176092</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -529,14 +529,14 @@
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36.3</v>
+        <v>43.22</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>3.63</v>
+        <v>4.32</v>
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I10" s="9" t="inlineStr">
@@ -547,11 +547,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45954.560625</v>
+        <v>45957.00587962963</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.31202</t>
+          <t>M.15608.6508.806263</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="F11" s="6" t="n">
-        <v>93.12</v>
+        <v>47.35</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>9.31</v>
+        <v>4.74</v>
       </c>
       <c r="H11" s="8" t="inlineStr">
         <is>
@@ -588,11 +588,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45954.52207175926</v>
+        <v>45956.7049537037</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.12675</t>
+          <t>M.15608.6508.144728</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="F12" s="6" t="n">
-        <v>110.48</v>
+        <v>36.3</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>11.05</v>
+        <v>3.63</v>
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
@@ -629,11 +629,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45954.42665509259</v>
+        <v>45956.61803240741</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1304413</t>
+          <t>M.15608.6508.57430</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -652,14 +652,14 @@
         </is>
       </c>
       <c r="F13" s="6" t="n">
-        <v>58.4</v>
+        <v>56.65</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>5.84</v>
+        <v>5.66</v>
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I13" s="9" t="inlineStr">
@@ -670,11 +670,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45954.397141203706</v>
+        <v>45956.60287037037</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1271862</t>
+          <t>M.15608.6508.48507</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -693,14 +693,14 @@
         </is>
       </c>
       <c r="F14" s="6" t="n">
-        <v>104.34</v>
+        <v>37.88</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>10.43</v>
+        <v>3.79</v>
       </c>
       <c r="H14" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I14" s="9" t="inlineStr">
@@ -711,11 +711,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45954.37380787037</v>
+        <v>45956.60021990741</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1255452</t>
+          <t>M.15608.6508.46696</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -734,14 +734,14 @@
         </is>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26.83</v>
+        <v>14.21</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>2.68</v>
+        <v>1.42</v>
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I15" s="9" t="inlineStr">
@@ -752,11 +752,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45954.24269675926</v>
+        <v>45956.541666666664</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1102880</t>
+          <t>M.15608.6508.20795</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -775,14 +775,14 @@
         </is>
       </c>
       <c r="F16" s="6" t="n">
-        <v>118.37</v>
+        <v>13.4</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>11.84</v>
+        <v>1.34</v>
       </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I16" s="9" t="inlineStr">
@@ -793,11 +793,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45954.16863425926</v>
+        <v>45956.42675925926</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1005197</t>
+          <t>M.15608.6507.1577125</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -816,14 +816,14 @@
         </is>
       </c>
       <c r="F17" s="6" t="n">
-        <v>52.15</v>
+        <v>59.98</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>5.22</v>
+        <v>6.0</v>
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I17" s="9" t="inlineStr">
@@ -834,11 +834,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45954.07134259259</v>
+        <v>45956.22388888889</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.791230</t>
+          <t>M.15608.6507.1258171</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -857,14 +857,14 @@
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>81.96</v>
+        <v>15.78</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>8.2</v>
+        <v>1.58</v>
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I18" s="9" t="inlineStr">
@@ -875,11 +875,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45954.00981481482</v>
+        <v>45956.009930555556</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.721227</t>
+          <t>M.15608.6507.741958</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14.2</v>
+        <v>39.46</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>1.42</v>
+        <v>3.95</v>
       </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
@@ -916,11 +916,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45953.87228009259</v>
+        <v>45955.97105324074</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.491801</t>
+          <t>M.15608.6507.659333</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -939,14 +939,14 @@
         </is>
       </c>
       <c r="F20" s="6" t="n">
-        <v>77.33</v>
+        <v>44.72</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>7.73</v>
+        <v>4.47</v>
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I20" s="9" t="inlineStr">
@@ -957,11 +957,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45953.85863425926</v>
+        <v>45955.847719907404</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.430950</t>
+          <t>M.15608.6507.395050</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="F21" s="6" t="n">
-        <v>56.64</v>
+        <v>87.94</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>5.66</v>
+        <v>8.79</v>
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
@@ -998,11 +998,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45953.83896990741</v>
+        <v>45955.39493055556</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.403682</t>
+          <t>M.15608.6506.1443638</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1021,14 +1021,14 @@
         </is>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14.2</v>
+        <v>87.94</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>1.42</v>
+        <v>8.79</v>
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I22" s="9" t="inlineStr">
@@ -1039,11 +1039,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45953.73425925926</v>
+        <v>45954.92899305555</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.201014</t>
+          <t>M.15608.6506.583818</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F23" s="6" t="n">
-        <v>71.02</v>
+        <v>81.96</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>7.1</v>
+        <v>8.2</v>
       </c>
       <c r="H23" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I23" s="9" t="inlineStr">
@@ -1080,11 +1080,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45953.630474537036</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.65255</t>
+          <t>M.15608.6506.459388</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1103,14 +1103,14 @@
         </is>
       </c>
       <c r="F24" s="6" t="n">
-        <v>36.3</v>
+        <v>52.15</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>3.63</v>
+        <v>5.22</v>
       </c>
       <c r="H24" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I24" s="9" t="inlineStr">
@@ -1121,11 +1121,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45953.62299768518</v>
+        <v>45954.84951388889</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.59928</t>
+          <t>M.15608.6506.405561</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="F25" s="6" t="n">
-        <v>71.02</v>
+        <v>110.48</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>7.1</v>
+        <v>11.05</v>
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
@@ -1162,11 +1162,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45953.59605324074</v>
+        <v>45954.71026620371</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.44409</t>
+          <t>M.15608.6506.159942</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="F26" s="6" t="n">
-        <v>59.97</v>
+        <v>14.2</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>6.0</v>
+        <v>1.42</v>
       </c>
       <c r="H26" s="8" t="inlineStr">
         <is>
@@ -1203,11 +1203,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45953.35972222222</v>
+        <v>45954.67798611111</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.1306645</t>
+          <t>M.15608.6506.113392</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="F27" s="6" t="n">
-        <v>42.61</v>
+        <v>14.2</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>4.26</v>
+        <v>1.42</v>
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
@@ -1244,11 +1244,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45953.086851851855</v>
+        <v>45954.631006944444</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.855829</t>
+          <t>M.15608.6506.72786</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="F28" s="6" t="n">
-        <v>61.55</v>
+        <v>36.3</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>6.16</v>
+        <v>3.63</v>
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
@@ -1285,11 +1285,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45953.019780092596</v>
+        <v>45954.560625</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.753206</t>
+          <t>M.15608.6506.31202</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1308,14 +1308,14 @@
         </is>
       </c>
       <c r="F29" s="6" t="n">
-        <v>29.3</v>
+        <v>93.12</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>2.93</v>
+        <v>9.31</v>
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>D20</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I29" s="9" t="inlineStr">
@@ -1326,11 +1326,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45952.97883101852</v>
+        <v>45954.52207175926</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.694549</t>
+          <t>M.15608.6506.12675</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26.83</v>
+        <v>110.48</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>2.68</v>
+        <v>11.05</v>
       </c>
       <c r="H30" s="8" t="inlineStr">
         <is>
@@ -1367,11 +1367,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45952.963692129626</v>
+        <v>45954.42665509259</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.672763</t>
+          <t>M.15608.6505.1304413</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1390,14 +1390,14 @@
         </is>
       </c>
       <c r="F31" s="6" t="n">
-        <v>45.78</v>
+        <v>58.4</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>4.58</v>
+        <v>5.84</v>
       </c>
       <c r="H31" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I31" s="9" t="inlineStr">
@@ -1408,11 +1408,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45952.761770833335</v>
+        <v>45954.397141203706</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.259796</t>
+          <t>M.15608.6505.1271862</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1431,14 +1431,14 @@
         </is>
       </c>
       <c r="F32" s="6" t="n">
-        <v>14.21</v>
+        <v>104.34</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>1.42</v>
+        <v>10.43</v>
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I32" s="9" t="inlineStr">
@@ -1449,11 +1449,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45952.73630787037</v>
+        <v>45954.37380787037</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.209654</t>
+          <t>M.15608.6505.1255452</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1472,14 +1472,14 @@
         </is>
       </c>
       <c r="F33" s="6" t="n">
-        <v>124.7</v>
+        <v>26.83</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>12.47</v>
+        <v>2.68</v>
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I33" s="9" t="inlineStr">
@@ -1490,11 +1490,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45952.685532407406</v>
+        <v>45954.24269675926</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.125010</t>
+          <t>M.15608.6505.1102880</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="F34" s="6" t="n">
-        <v>37.88</v>
+        <v>118.37</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>3.79</v>
+        <v>11.84</v>
       </c>
       <c r="H34" s="8" t="inlineStr">
         <is>
@@ -1531,11 +1531,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45952.66378472222</v>
+        <v>45954.16863425926</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.107621</t>
+          <t>M.15608.6505.1005197</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1554,14 +1554,14 @@
         </is>
       </c>
       <c r="F35" s="6" t="n">
-        <v>39.46</v>
+        <v>52.15</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>3.95</v>
+        <v>5.22</v>
       </c>
       <c r="H35" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I35" s="9" t="inlineStr">
@@ -1572,11 +1572,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45952.63895833334</v>
+        <v>45954.07134259259</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.78271</t>
+          <t>M.15608.6505.791230</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1595,14 +1595,14 @@
         </is>
       </c>
       <c r="F36" s="6" t="n">
-        <v>34.73</v>
+        <v>81.96</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>3.47</v>
+        <v>8.2</v>
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I36" s="9" t="inlineStr">
@@ -1613,11 +1613,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45952.633784722224</v>
+        <v>45954.00981481482</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.73385</t>
+          <t>M.15608.6505.721227</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1636,14 +1636,14 @@
         </is>
       </c>
       <c r="F37" s="6" t="n">
-        <v>14.21</v>
+        <v>14.2</v>
       </c>
       <c r="G37" s="7" t="n">
         <v>1.42</v>
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I37" s="9" t="inlineStr">
@@ -1654,11 +1654,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45952.586226851854</v>
+        <v>45953.87228009259</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.45896</t>
+          <t>M.15608.6505.491801</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1677,14 +1677,14 @@
         </is>
       </c>
       <c r="F38" s="6" t="n">
-        <v>13.4</v>
+        <v>77.33</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>1.34</v>
+        <v>7.73</v>
       </c>
       <c r="H38" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I38" s="9" t="inlineStr">
@@ -1695,11 +1695,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45952.560069444444</v>
+        <v>45953.85863425926</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.34027</t>
+          <t>M.15608.6505.430950</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1718,14 +1718,14 @@
         </is>
       </c>
       <c r="F39" s="6" t="n">
-        <v>36.3</v>
+        <v>56.64</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>3.63</v>
+        <v>5.66</v>
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I39" s="9" t="inlineStr">
@@ -1736,11 +1736,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45952.487858796296</v>
+        <v>45953.83896990741</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.1430691</t>
+          <t>M.15608.6505.403682</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1759,14 +1759,14 @@
         </is>
       </c>
       <c r="F40" s="6" t="n">
-        <v>104.35</v>
+        <v>14.2</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>10.44</v>
+        <v>1.42</v>
       </c>
       <c r="H40" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I40" s="9" t="inlineStr">
@@ -1777,11 +1777,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45952.43483796297</v>
+        <v>45953.73425925926</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.1354508</t>
+          <t>M.15608.6505.201014</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="F41" s="6" t="n">
-        <v>44.2</v>
+        <v>71.02</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>4.42</v>
+        <v>7.1</v>
       </c>
       <c r="H41" s="8" t="inlineStr">
         <is>
@@ -1818,11 +1818,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45952.12751157407</v>
+        <v>45953.630474537036</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.747194</t>
+          <t>M.15608.6505.65255</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="F42" s="6" t="n">
-        <v>45.78</v>
+        <v>36.3</v>
       </c>
       <c r="G42" s="7" t="n">
-        <v>4.58</v>
+        <v>3.63</v>
       </c>
       <c r="H42" s="8" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45952.00640046296</v>
+        <v>45953.62299768518</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.566392</t>
+          <t>M.15608.6505.59928</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1882,14 +1882,14 @@
         </is>
       </c>
       <c r="F43" s="6" t="n">
-        <v>43.22</v>
+        <v>71.02</v>
       </c>
       <c r="G43" s="7" t="n">
-        <v>4.32</v>
+        <v>7.1</v>
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I43" s="9" t="inlineStr">
@@ -1900,11 +1900,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45951.95179398148</v>
+        <v>45953.59605324074</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.460669</t>
+          <t>M.15608.6505.44409</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1923,14 +1923,14 @@
         </is>
       </c>
       <c r="F44" s="6" t="n">
-        <v>31.25</v>
+        <v>59.97</v>
       </c>
       <c r="G44" s="7" t="n">
-        <v>3.13</v>
+        <v>6.0</v>
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I44" s="9" t="inlineStr">
@@ -1941,11 +1941,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45951.918599537035</v>
+        <v>45953.35972222222</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.413344</t>
+          <t>M.15608.6504.1306645</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1964,14 +1964,14 @@
         </is>
       </c>
       <c r="F45" s="6" t="n">
-        <v>26.83</v>
+        <v>42.61</v>
       </c>
       <c r="G45" s="7" t="n">
-        <v>2.68</v>
+        <v>4.26</v>
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I45" s="9" t="inlineStr">
@@ -1982,11 +1982,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45951.695868055554</v>
+        <v>45953.086851851855</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.127414</t>
+          <t>M.15608.6504.855829</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="F46" s="6" t="n">
-        <v>14.21</v>
+        <v>61.55</v>
       </c>
       <c r="G46" s="7" t="n">
-        <v>1.42</v>
+        <v>6.16</v>
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
@@ -2023,11 +2023,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45951.63533564815</v>
+        <v>45953.019780092596</v>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.85823</t>
+          <t>M.15608.6504.753206</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2046,14 +2046,14 @@
         </is>
       </c>
       <c r="F47" s="6" t="n">
-        <v>37.25</v>
+        <v>29.3</v>
       </c>
       <c r="G47" s="7" t="n">
-        <v>3.73</v>
+        <v>2.93</v>
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D20</t>
         </is>
       </c>
       <c r="I47" s="9" t="inlineStr">
@@ -2064,11 +2064,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45951.47851851852</v>
+        <v>45952.97883101852</v>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.1404826</t>
+          <t>M.15608.6504.694549</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -2087,14 +2087,14 @@
         </is>
       </c>
       <c r="F48" s="6" t="n">
-        <v>14.21</v>
+        <v>26.83</v>
       </c>
       <c r="G48" s="7" t="n">
-        <v>1.42</v>
+        <v>2.68</v>
       </c>
       <c r="H48" s="8" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I48" s="9" t="inlineStr">
@@ -2105,11 +2105,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45951.430138888885</v>
+        <v>45952.963692129626</v>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.1343453</t>
+          <t>M.15608.6504.672763</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2128,14 +2128,14 @@
         </is>
       </c>
       <c r="F49" s="6" t="n">
-        <v>36.3</v>
+        <v>45.78</v>
       </c>
       <c r="G49" s="7" t="n">
-        <v>3.63</v>
+        <v>4.58</v>
       </c>
       <c r="H49" s="8" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I49" s="9" t="inlineStr">
@@ -2146,11 +2146,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45951.35328703704</v>
+        <v>45952.761770833335</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.1251979</t>
+          <t>M.15608.6504.259796</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="F50" s="6" t="n">
-        <v>110.49</v>
+        <v>14.21</v>
       </c>
       <c r="G50" s="7" t="n">
-        <v>11.05</v>
+        <v>1.42</v>
       </c>
       <c r="H50" s="8" t="inlineStr">
         <is>
@@ -2187,11 +2187,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45951.28636574074</v>
+        <v>45952.73630787037</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.1182640</t>
+          <t>M.15608.6504.209654</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2210,10 +2210,10 @@
         </is>
       </c>
       <c r="F51" s="6" t="n">
-        <v>64.72</v>
+        <v>124.7</v>
       </c>
       <c r="G51" s="7" t="n">
-        <v>6.47</v>
+        <v>12.47</v>
       </c>
       <c r="H51" s="8" t="inlineStr">
         <is>
@@ -2228,11 +2228,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45950.9299537037</v>
+        <v>45952.685532407406</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.517328</t>
+          <t>M.15608.6504.125010</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2251,14 +2251,14 @@
         </is>
       </c>
       <c r="F52" s="6" t="n">
-        <v>86.8</v>
+        <v>37.88</v>
       </c>
       <c r="G52" s="7" t="n">
-        <v>8.68</v>
+        <v>3.79</v>
       </c>
       <c r="H52" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I52" s="9" t="inlineStr">
@@ -2269,11 +2269,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45950.65608796296</v>
+        <v>45952.66378472222</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.82897</t>
+          <t>M.15608.6504.107621</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="F53" s="6" t="n">
-        <v>97.85</v>
+        <v>39.46</v>
       </c>
       <c r="G53" s="7" t="n">
-        <v>9.79</v>
+        <v>3.95</v>
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
@@ -2310,11 +2310,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45950.64420138889</v>
+        <v>45952.63895833334</v>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.77625</t>
+          <t>M.15608.6504.78271</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2333,14 +2333,14 @@
         </is>
       </c>
       <c r="F54" s="6" t="n">
-        <v>110.48</v>
+        <v>34.73</v>
       </c>
       <c r="G54" s="7" t="n">
-        <v>11.05</v>
+        <v>3.47</v>
       </c>
       <c r="H54" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I54" s="9" t="inlineStr">
@@ -2351,11 +2351,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45950.5840625</v>
+        <v>45952.633784722224</v>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.40933</t>
+          <t>M.15608.6504.73385</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2374,14 +2374,14 @@
         </is>
       </c>
       <c r="F55" s="6" t="n">
-        <v>14.2</v>
+        <v>14.21</v>
       </c>
       <c r="G55" s="7" t="n">
         <v>1.42</v>
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="I55" s="9" t="inlineStr">
@@ -2392,11 +2392,11 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45950.56178240741</v>
+        <v>45952.586226851854</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.29309</t>
+          <t>M.15608.6504.45896</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2415,14 +2415,14 @@
         </is>
       </c>
       <c r="F56" s="6" t="n">
-        <v>14.2</v>
+        <v>13.4</v>
       </c>
       <c r="G56" s="7" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="H56" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I56" s="9" t="inlineStr">
@@ -2433,11 +2433,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45950.46554398148</v>
+        <v>45952.560069444444</v>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.1419787</t>
+          <t>M.15608.6504.34027</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="F57" s="6" t="n">
-        <v>29.99</v>
+        <v>36.3</v>
       </c>
       <c r="G57" s="7" t="n">
-        <v>3.0</v>
+        <v>3.63</v>
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
@@ -2474,11 +2474,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45950.46275462963</v>
+        <v>45952.487858796296</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.1419548</t>
+          <t>M.15608.6503.1430691</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2497,14 +2497,14 @@
         </is>
       </c>
       <c r="F58" s="6" t="n">
-        <v>31.57</v>
+        <v>104.35</v>
       </c>
       <c r="G58" s="7" t="n">
-        <v>3.16</v>
+        <v>10.44</v>
       </c>
       <c r="H58" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I58" s="9" t="inlineStr">
@@ -2515,11 +2515,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45950.4056712963</v>
+        <v>45952.43483796297</v>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.1332454</t>
+          <t>M.15608.6503.1354508</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
@@ -2538,14 +2538,14 @@
         </is>
       </c>
       <c r="F59" s="6" t="n">
-        <v>216.12</v>
+        <v>44.2</v>
       </c>
       <c r="G59" s="7" t="n">
-        <v>21.61</v>
+        <v>4.42</v>
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I59" s="9" t="inlineStr">
@@ -2556,11 +2556,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45950.19702546296</v>
+        <v>45952.12751157407</v>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.1064452</t>
+          <t>M.15608.6503.747194</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2579,14 +2579,14 @@
         </is>
       </c>
       <c r="F60" s="6" t="n">
-        <v>146.08</v>
+        <v>45.78</v>
       </c>
       <c r="G60" s="7" t="n">
-        <v>14.61</v>
+        <v>4.58</v>
       </c>
       <c r="H60" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I60" s="9" t="inlineStr">
@@ -2597,11 +2597,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45950.157222222224</v>
+        <v>45952.00640046296</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.994781</t>
+          <t>M.15608.6503.566392</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2620,10 +2620,10 @@
         </is>
       </c>
       <c r="F61" s="6" t="n">
-        <v>26.83</v>
+        <v>43.22</v>
       </c>
       <c r="G61" s="7" t="n">
-        <v>2.68</v>
+        <v>4.32</v>
       </c>
       <c r="H61" s="8" t="inlineStr">
         <is>
@@ -2638,11 +2638,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45950.07685185185</v>
+        <v>45951.95179398148</v>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.814016</t>
+          <t>M.15608.6503.460669</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2661,14 +2661,14 @@
         </is>
       </c>
       <c r="F62" s="6" t="n">
-        <v>12.63</v>
+        <v>31.25</v>
       </c>
       <c r="G62" s="7" t="n">
-        <v>1.26</v>
+        <v>3.13</v>
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I62" s="9" t="inlineStr">
@@ -2679,11 +2679,11 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45949.8775</v>
+        <v>45951.918599537035</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.327998</t>
+          <t>M.15608.6503.413344</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -2702,14 +2702,14 @@
         </is>
       </c>
       <c r="F63" s="6" t="n">
-        <v>146.08</v>
+        <v>26.83</v>
       </c>
       <c r="G63" s="7" t="n">
-        <v>14.61</v>
+        <v>2.68</v>
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I63" s="9" t="inlineStr">
@@ -2720,11 +2720,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45949.66372685185</v>
+        <v>45951.695868055554</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.81033</t>
+          <t>M.15608.6503.127414</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
@@ -2743,14 +2743,14 @@
         </is>
       </c>
       <c r="F64" s="6" t="n">
-        <v>50.86</v>
+        <v>14.21</v>
       </c>
       <c r="G64" s="7" t="n">
-        <v>5.09</v>
+        <v>1.42</v>
       </c>
       <c r="H64" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I64" s="9" t="inlineStr">
@@ -2761,11 +2761,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45949.6209375</v>
+        <v>45951.63533564815</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6501.56619</t>
+          <t>M.15608.6503.85823</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2784,14 +2784,14 @@
         </is>
       </c>
       <c r="F65" s="6" t="n">
-        <v>14.2</v>
+        <v>37.25</v>
       </c>
       <c r="G65" s="7" t="n">
-        <v>1.42</v>
+        <v>3.73</v>
       </c>
       <c r="H65" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I65" s="9" t="inlineStr">
@@ -2802,11 +2802,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45949.43665509259</v>
+        <v>45951.47851851852</v>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6500.1219037</t>
+          <t>M.15608.6502.1404826</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2825,14 +2825,14 @@
         </is>
       </c>
       <c r="F66" s="6" t="n">
-        <v>110.48</v>
+        <v>14.21</v>
       </c>
       <c r="G66" s="7" t="n">
-        <v>11.05</v>
+        <v>1.42</v>
       </c>
       <c r="H66" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="I66" s="9" t="inlineStr">
@@ -2843,11 +2843,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45949.43662037037</v>
+        <v>45951.430138888885</v>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6500.1219060</t>
+          <t>M.15608.6502.1343453</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>Sale (Android App)</t>
+          <t>Sale (iOS App)</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
@@ -2866,14 +2866,14 @@
         </is>
       </c>
       <c r="F67" s="6" t="n">
-        <v>14.2</v>
+        <v>36.3</v>
       </c>
       <c r="G67" s="7" t="n">
-        <v>1.42</v>
+        <v>3.63</v>
       </c>
       <c r="H67" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="I67" s="9" t="inlineStr">
@@ -2884,11 +2884,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45949.25372685185</v>
+        <v>45951.35328703704</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6500.1036240</t>
+          <t>M.15608.6502.1251979</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2907,14 +2907,14 @@
         </is>
       </c>
       <c r="F68" s="6" t="n">
-        <v>29.99</v>
+        <v>110.49</v>
       </c>
       <c r="G68" s="7" t="n">
-        <v>3.0</v>
+        <v>11.05</v>
       </c>
       <c r="H68" s="8" t="inlineStr">
         <is>
-          <t>D24</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I68" s="9" t="inlineStr">
@@ -2924,43 +2924,84 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B69" s="12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C69" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D69" s="14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E69" s="15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F69" s="16" t="n">
-        <v>3822.55</v>
-      </c>
-      <c r="G69" s="17" t="n">
-        <v>382.28</v>
-      </c>
-      <c r="H69" s="18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I69" s="19" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>45951.28636574074</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6502.1182640</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>Sale (iOS App)</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>64.72</v>
+      </c>
+      <c r="G69" s="7" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="H69" s="8" t="inlineStr">
+        <is>
+          <t>SAHS</t>
+        </is>
+      </c>
+      <c r="I69" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C70" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D70" s="14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E70" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F70" s="16" t="n">
+        <v>3622.88</v>
+      </c>
+      <c r="G70" s="17" t="n">
+        <v>362.31</v>
+      </c>
+      <c r="H70" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I70" s="19" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/Updates/Input data/8682-AdvancedActionListi.xlsx
+++ b/Updates/Input data/8682-AdvancedActionListi.xlsx
@@ -123,7 +123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -178,11 +178,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45957.87008101852</v>
+        <v>45958.74517361111</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6509.483847</t>
+          <t>M.15608.6510.222193</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -201,14 +201,14 @@
         </is>
       </c>
       <c r="F2" s="6" t="n">
-        <v>78.92</v>
+        <v>65.59</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>7.89</v>
+        <v>6.56</v>
       </c>
       <c r="H2" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I2" s="9" t="inlineStr">
@@ -219,11 +219,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45957.73342592592</v>
+        <v>45958.718356481484</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6509.183321</t>
+          <t>M.15608.6510.167447</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -242,14 +242,14 @@
         </is>
       </c>
       <c r="F3" s="6" t="n">
-        <v>104.35</v>
+        <v>148.36</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>10.44</v>
+        <v>14.84</v>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D25</t>
         </is>
       </c>
       <c r="I3" s="9" t="inlineStr">
@@ -260,11 +260,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45957.62462962963</v>
+        <v>45958.631423611114</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6509.65463</t>
+          <t>M.15608.6510.67932</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -283,10 +283,10 @@
         </is>
       </c>
       <c r="F4" s="6" t="n">
-        <v>34.73</v>
+        <v>14.2</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>3.47</v>
+        <v>1.42</v>
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
@@ -301,11 +301,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45957.601851851854</v>
+        <v>45958.62133101852</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6509.49402</t>
+          <t>M.15608.6510.63008</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -324,14 +324,14 @@
         </is>
       </c>
       <c r="F5" s="6" t="n">
-        <v>14.21</v>
+        <v>44.72</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>1.42</v>
+        <v>4.47</v>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I5" s="9" t="inlineStr">
@@ -342,11 +342,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45957.60162037037</v>
+        <v>45958.57550925926</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6509.49340</t>
+          <t>M.15608.6510.35036</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -356,7 +356,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Sale (iOS App)</t>
+          <t>Sale (Android App)</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -365,10 +365,10 @@
         </is>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61.1</v>
+        <v>125.21</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>6.11</v>
+        <v>12.52</v>
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
@@ -383,11 +383,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45957.492939814816</v>
+        <v>45958.52924768518</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.1758842</t>
+          <t>M.15608.6510.13831</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -406,14 +406,14 @@
         </is>
       </c>
       <c r="F7" s="6" t="n">
-        <v>104.35</v>
+        <v>66.29</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>10.44</v>
+        <v>6.63</v>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I7" s="9" t="inlineStr">
@@ -424,11 +424,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45957.21574074074</v>
+        <v>45958.52417824074</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.1354778</t>
+          <t>M.15608.6510.11978</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="F8" s="6" t="n">
-        <v>115.23</v>
+        <v>14.2</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>11.52</v>
+        <v>1.42</v>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
@@ -465,11 +465,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45957.147824074076</v>
+        <v>45958.516863425924</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.1186647</t>
+          <t>M.15608.6510.8821</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="F9" s="6" t="n">
-        <v>75.77</v>
+        <v>110.48</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>7.58</v>
+        <v>11.05</v>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
@@ -506,11 +506,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45957.14303240741</v>
+        <v>45958.40109953703</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.1176092</t>
+          <t>M.15608.6509.1668143</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>43.22</v>
+        <v>43.21</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>4.32</v>
@@ -547,11 +547,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45957.00587962963</v>
+        <v>45958.399930555555</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.806263</t>
+          <t>M.15608.6509.1668201</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47.35</v>
+        <v>71.55</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>4.74</v>
+        <v>7.15</v>
       </c>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I11" s="9" t="inlineStr">
@@ -588,11 +588,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45956.7049537037</v>
+        <v>45958.39686342593</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.144728</t>
+          <t>M.15608.6509.1666660</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -611,14 +611,14 @@
         </is>
       </c>
       <c r="F12" s="6" t="n">
-        <v>36.3</v>
+        <v>43.21</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>3.63</v>
+        <v>4.32</v>
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I12" s="9" t="inlineStr">
@@ -629,11 +629,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45956.61803240741</v>
+        <v>45958.10335648148</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.57430</t>
+          <t>M.15608.6509.1073322</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -652,14 +652,14 @@
         </is>
       </c>
       <c r="F13" s="6" t="n">
-        <v>56.65</v>
+        <v>28.41</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>5.66</v>
+        <v>2.84</v>
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I13" s="9" t="inlineStr">
@@ -670,11 +670,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45956.60287037037</v>
+        <v>45957.87008101852</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.48507</t>
+          <t>M.15608.6509.483847</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="F14" s="6" t="n">
-        <v>37.88</v>
+        <v>78.92</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>3.79</v>
+        <v>7.89</v>
       </c>
       <c r="H14" s="8" t="inlineStr">
         <is>
@@ -711,11 +711,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45956.60021990741</v>
+        <v>45957.73342592592</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.46696</t>
+          <t>M.15608.6509.183321</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -734,14 +734,14 @@
         </is>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14.21</v>
+        <v>104.35</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>1.42</v>
+        <v>10.44</v>
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I15" s="9" t="inlineStr">
@@ -752,11 +752,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45956.541666666664</v>
+        <v>45957.62462962963</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6508.20795</t>
+          <t>M.15608.6509.65463</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -775,14 +775,14 @@
         </is>
       </c>
       <c r="F16" s="6" t="n">
-        <v>13.4</v>
+        <v>34.73</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>1.34</v>
+        <v>3.47</v>
       </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I16" s="9" t="inlineStr">
@@ -793,11 +793,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45956.42675925926</v>
+        <v>45957.601851851854</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6507.1577125</t>
+          <t>M.15608.6509.49402</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="F17" s="6" t="n">
-        <v>59.98</v>
+        <v>14.21</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>6.0</v>
+        <v>1.42</v>
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
@@ -834,11 +834,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45956.22388888889</v>
+        <v>45957.60162037037</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6507.1258171</t>
+          <t>M.15608.6509.49340</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -857,14 +857,14 @@
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15.78</v>
+        <v>61.1</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>1.58</v>
+        <v>6.11</v>
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I18" s="9" t="inlineStr">
@@ -875,11 +875,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45956.009930555556</v>
+        <v>45957.492939814816</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6507.741958</t>
+          <t>M.15608.6508.1758842</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -898,14 +898,14 @@
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39.46</v>
+        <v>104.35</v>
       </c>
       <c r="G19" s="7" t="n">
-        <v>3.95</v>
+        <v>10.44</v>
       </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I19" s="9" t="inlineStr">
@@ -916,11 +916,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45955.97105324074</v>
+        <v>45957.21574074074</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6507.659333</t>
+          <t>M.15608.6508.1354778</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -939,14 +939,14 @@
         </is>
       </c>
       <c r="F20" s="6" t="n">
-        <v>44.72</v>
+        <v>115.23</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>4.47</v>
+        <v>11.52</v>
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I20" s="9" t="inlineStr">
@@ -957,11 +957,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45955.847719907404</v>
+        <v>45957.147824074076</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6507.395050</t>
+          <t>M.15608.6508.1186647</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -980,14 +980,14 @@
         </is>
       </c>
       <c r="F21" s="6" t="n">
-        <v>87.94</v>
+        <v>75.77</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>8.79</v>
+        <v>7.58</v>
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I21" s="9" t="inlineStr">
@@ -998,11 +998,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45955.39493055556</v>
+        <v>45957.14303240741</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.1443638</t>
+          <t>M.15608.6508.1176092</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="F22" s="6" t="n">
-        <v>87.94</v>
+        <v>43.22</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>8.79</v>
+        <v>4.32</v>
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
@@ -1039,11 +1039,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45954.92899305555</v>
+        <v>45957.00587962963</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.583818</t>
+          <t>M.15608.6508.806263</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F23" s="6" t="n">
-        <v>81.96</v>
+        <v>47.35</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>8.2</v>
+        <v>4.74</v>
       </c>
       <c r="H23" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I23" s="9" t="inlineStr">
@@ -1080,11 +1080,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45954.87305555555</v>
+        <v>45956.7049537037</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.459388</t>
+          <t>M.15608.6508.144728</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1103,14 +1103,14 @@
         </is>
       </c>
       <c r="F24" s="6" t="n">
-        <v>52.15</v>
+        <v>36.3</v>
       </c>
       <c r="G24" s="7" t="n">
-        <v>5.22</v>
+        <v>3.63</v>
       </c>
       <c r="H24" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I24" s="9" t="inlineStr">
@@ -1121,11 +1121,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45954.84951388889</v>
+        <v>45956.61803240741</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.405561</t>
+          <t>M.15608.6508.57430</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1144,14 +1144,14 @@
         </is>
       </c>
       <c r="F25" s="6" t="n">
-        <v>110.48</v>
+        <v>56.65</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>11.05</v>
+        <v>5.66</v>
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I25" s="9" t="inlineStr">
@@ -1162,11 +1162,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45954.71026620371</v>
+        <v>45956.60287037037</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.159942</t>
+          <t>M.15608.6508.48507</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14.2</v>
+        <v>37.88</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>1.42</v>
+        <v>3.79</v>
       </c>
       <c r="H26" s="8" t="inlineStr">
         <is>
@@ -1203,11 +1203,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45954.67798611111</v>
+        <v>45956.60021990741</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.113392</t>
+          <t>M.15608.6508.46696</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14.2</v>
+        <v>14.21</v>
       </c>
       <c r="G27" s="7" t="n">
         <v>1.42</v>
@@ -1244,11 +1244,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45954.631006944444</v>
+        <v>45956.541666666664</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.72786</t>
+          <t>M.15608.6508.20795</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="F28" s="6" t="n">
-        <v>36.3</v>
+        <v>13.4</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>3.63</v>
+        <v>1.34</v>
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I28" s="9" t="inlineStr">
@@ -1285,11 +1285,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45954.560625</v>
+        <v>45956.42675925926</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.31202</t>
+          <t>M.15608.6507.1577125</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="F29" s="6" t="n">
-        <v>93.12</v>
+        <v>59.98</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>9.31</v>
+        <v>6.0</v>
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
@@ -1326,11 +1326,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45954.52207175926</v>
+        <v>45956.22388888889</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6506.12675</t>
+          <t>M.15608.6507.1258171</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="F30" s="6" t="n">
-        <v>110.48</v>
+        <v>15.78</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>11.05</v>
+        <v>1.58</v>
       </c>
       <c r="H30" s="8" t="inlineStr">
         <is>
@@ -1367,11 +1367,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45954.42665509259</v>
+        <v>45956.009930555556</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1304413</t>
+          <t>M.15608.6507.741958</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="F31" s="6" t="n">
-        <v>58.4</v>
+        <v>39.46</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>5.84</v>
+        <v>3.95</v>
       </c>
       <c r="H31" s="8" t="inlineStr">
         <is>
@@ -1408,11 +1408,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45954.397141203706</v>
+        <v>45955.97105324074</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1271862</t>
+          <t>M.15608.6507.659333</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="F32" s="6" t="n">
-        <v>104.34</v>
+        <v>44.72</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>10.43</v>
+        <v>4.47</v>
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
@@ -1449,11 +1449,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45954.37380787037</v>
+        <v>45955.847719907404</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1255452</t>
+          <t>M.15608.6507.395050</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="F33" s="6" t="n">
-        <v>26.83</v>
+        <v>87.94</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>2.68</v>
+        <v>8.79</v>
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
@@ -1490,11 +1490,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45954.24269675926</v>
+        <v>45955.39493055556</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1102880</t>
+          <t>M.15608.6506.1443638</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1513,14 +1513,14 @@
         </is>
       </c>
       <c r="F34" s="6" t="n">
-        <v>118.37</v>
+        <v>87.94</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>11.84</v>
+        <v>8.79</v>
       </c>
       <c r="H34" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I34" s="9" t="inlineStr">
@@ -1531,11 +1531,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45954.16863425926</v>
+        <v>45954.92899305555</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.1005197</t>
+          <t>M.15608.6506.583818</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="F35" s="6" t="n">
-        <v>52.15</v>
+        <v>81.96</v>
       </c>
       <c r="G35" s="7" t="n">
-        <v>5.22</v>
+        <v>8.2</v>
       </c>
       <c r="H35" s="8" t="inlineStr">
         <is>
@@ -1572,11 +1572,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45954.07134259259</v>
+        <v>45954.87305555555</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.791230</t>
+          <t>M.15608.6506.459388</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="F36" s="6" t="n">
-        <v>81.96</v>
+        <v>52.15</v>
       </c>
       <c r="G36" s="7" t="n">
-        <v>8.2</v>
+        <v>5.22</v>
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
@@ -1613,11 +1613,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45954.00981481482</v>
+        <v>45954.84951388889</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.721227</t>
+          <t>M.15608.6506.405561</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="F37" s="6" t="n">
-        <v>14.2</v>
+        <v>110.48</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>1.42</v>
+        <v>11.05</v>
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
@@ -1654,11 +1654,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45953.87228009259</v>
+        <v>45954.71026620371</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.491801</t>
+          <t>M.15608.6506.159942</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1677,10 +1677,10 @@
         </is>
       </c>
       <c r="F38" s="6" t="n">
-        <v>77.33</v>
+        <v>14.2</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>7.73</v>
+        <v>1.42</v>
       </c>
       <c r="H38" s="8" t="inlineStr">
         <is>
@@ -1695,11 +1695,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45953.85863425926</v>
+        <v>45954.67798611111</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.430950</t>
+          <t>M.15608.6506.113392</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1718,14 +1718,14 @@
         </is>
       </c>
       <c r="F39" s="6" t="n">
-        <v>56.64</v>
+        <v>14.2</v>
       </c>
       <c r="G39" s="7" t="n">
-        <v>5.66</v>
+        <v>1.42</v>
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I39" s="9" t="inlineStr">
@@ -1736,11 +1736,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45953.83896990741</v>
+        <v>45954.631006944444</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.403682</t>
+          <t>M.15608.6506.72786</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="F40" s="6" t="n">
-        <v>14.2</v>
+        <v>36.3</v>
       </c>
       <c r="G40" s="7" t="n">
-        <v>1.42</v>
+        <v>3.63</v>
       </c>
       <c r="H40" s="8" t="inlineStr">
         <is>
@@ -1777,11 +1777,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45953.73425925926</v>
+        <v>45954.560625</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.201014</t>
+          <t>M.15608.6506.31202</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="F41" s="6" t="n">
-        <v>71.02</v>
+        <v>93.12</v>
       </c>
       <c r="G41" s="7" t="n">
-        <v>7.1</v>
+        <v>9.31</v>
       </c>
       <c r="H41" s="8" t="inlineStr">
         <is>
@@ -1818,11 +1818,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45953.630474537036</v>
+        <v>45954.52207175926</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.65255</t>
+          <t>M.15608.6506.12675</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="F42" s="6" t="n">
-        <v>36.3</v>
+        <v>110.48</v>
       </c>
       <c r="G42" s="7" t="n">
-        <v>3.63</v>
+        <v>11.05</v>
       </c>
       <c r="H42" s="8" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45953.62299768518</v>
+        <v>45954.42665509259</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.59928</t>
+          <t>M.15608.6505.1304413</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F43" s="6" t="n">
-        <v>71.02</v>
+        <v>58.4</v>
       </c>
       <c r="G43" s="7" t="n">
-        <v>7.1</v>
+        <v>5.84</v>
       </c>
       <c r="H43" s="8" t="inlineStr">
         <is>
@@ -1900,11 +1900,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45953.59605324074</v>
+        <v>45954.397141203706</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6505.44409</t>
+          <t>M.15608.6505.1271862</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1923,14 +1923,14 @@
         </is>
       </c>
       <c r="F44" s="6" t="n">
-        <v>59.97</v>
+        <v>104.34</v>
       </c>
       <c r="G44" s="7" t="n">
-        <v>6.0</v>
+        <v>10.43</v>
       </c>
       <c r="H44" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I44" s="9" t="inlineStr">
@@ -1941,11 +1941,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45953.35972222222</v>
+        <v>45954.37380787037</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.1306645</t>
+          <t>M.15608.6505.1255452</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1964,14 +1964,14 @@
         </is>
       </c>
       <c r="F45" s="6" t="n">
-        <v>42.61</v>
+        <v>26.83</v>
       </c>
       <c r="G45" s="7" t="n">
-        <v>4.26</v>
+        <v>2.68</v>
       </c>
       <c r="H45" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I45" s="9" t="inlineStr">
@@ -1982,11 +1982,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45953.086851851855</v>
+        <v>45954.24269675926</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.855829</t>
+          <t>M.15608.6505.1102880</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="F46" s="6" t="n">
-        <v>61.55</v>
+        <v>118.37</v>
       </c>
       <c r="G46" s="7" t="n">
-        <v>6.16</v>
+        <v>11.84</v>
       </c>
       <c r="H46" s="8" t="inlineStr">
         <is>
@@ -2023,11 +2023,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45953.019780092596</v>
+        <v>45954.16863425926</v>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.753206</t>
+          <t>M.15608.6505.1005197</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2046,14 +2046,14 @@
         </is>
       </c>
       <c r="F47" s="6" t="n">
-        <v>29.3</v>
+        <v>52.15</v>
       </c>
       <c r="G47" s="7" t="n">
-        <v>2.93</v>
+        <v>5.22</v>
       </c>
       <c r="H47" s="8" t="inlineStr">
         <is>
-          <t>D20</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I47" s="9" t="inlineStr">
@@ -2064,11 +2064,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45952.97883101852</v>
+        <v>45954.07134259259</v>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.694549</t>
+          <t>M.15608.6505.791230</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -2087,14 +2087,14 @@
         </is>
       </c>
       <c r="F48" s="6" t="n">
-        <v>26.83</v>
+        <v>81.96</v>
       </c>
       <c r="G48" s="7" t="n">
-        <v>2.68</v>
+        <v>8.2</v>
       </c>
       <c r="H48" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I48" s="9" t="inlineStr">
@@ -2105,11 +2105,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45952.963692129626</v>
+        <v>45954.00981481482</v>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.672763</t>
+          <t>M.15608.6505.721227</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2128,14 +2128,14 @@
         </is>
       </c>
       <c r="F49" s="6" t="n">
-        <v>45.78</v>
+        <v>14.2</v>
       </c>
       <c r="G49" s="7" t="n">
-        <v>4.58</v>
+        <v>1.42</v>
       </c>
       <c r="H49" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I49" s="9" t="inlineStr">
@@ -2146,11 +2146,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45952.761770833335</v>
+        <v>45953.87228009259</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.259796</t>
+          <t>M.15608.6505.491801</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="F50" s="6" t="n">
-        <v>14.21</v>
+        <v>77.33</v>
       </c>
       <c r="G50" s="7" t="n">
-        <v>1.42</v>
+        <v>7.73</v>
       </c>
       <c r="H50" s="8" t="inlineStr">
         <is>
@@ -2187,11 +2187,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45952.73630787037</v>
+        <v>45953.85863425926</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.209654</t>
+          <t>M.15608.6505.430950</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2210,14 +2210,14 @@
         </is>
       </c>
       <c r="F51" s="6" t="n">
-        <v>124.7</v>
+        <v>56.64</v>
       </c>
       <c r="G51" s="7" t="n">
-        <v>12.47</v>
+        <v>5.66</v>
       </c>
       <c r="H51" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I51" s="9" t="inlineStr">
@@ -2228,11 +2228,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45952.685532407406</v>
+        <v>45953.83896990741</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.125010</t>
+          <t>M.15608.6505.403682</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="F52" s="6" t="n">
-        <v>37.88</v>
+        <v>14.2</v>
       </c>
       <c r="G52" s="7" t="n">
-        <v>3.79</v>
+        <v>1.42</v>
       </c>
       <c r="H52" s="8" t="inlineStr">
         <is>
@@ -2269,11 +2269,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45952.66378472222</v>
+        <v>45953.73425925926</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.107621</t>
+          <t>M.15608.6505.201014</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="F53" s="6" t="n">
-        <v>39.46</v>
+        <v>71.02</v>
       </c>
       <c r="G53" s="7" t="n">
-        <v>3.95</v>
+        <v>7.1</v>
       </c>
       <c r="H53" s="8" t="inlineStr">
         <is>
@@ -2310,11 +2310,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45952.63895833334</v>
+        <v>45953.630474537036</v>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.78271</t>
+          <t>M.15608.6505.65255</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2333,14 +2333,14 @@
         </is>
       </c>
       <c r="F54" s="6" t="n">
-        <v>34.73</v>
+        <v>36.3</v>
       </c>
       <c r="G54" s="7" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="H54" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I54" s="9" t="inlineStr">
@@ -2351,11 +2351,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45952.633784722224</v>
+        <v>45953.62299768518</v>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.73385</t>
+          <t>M.15608.6505.59928</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2374,14 +2374,14 @@
         </is>
       </c>
       <c r="F55" s="6" t="n">
-        <v>14.21</v>
+        <v>71.02</v>
       </c>
       <c r="G55" s="7" t="n">
-        <v>1.42</v>
+        <v>7.1</v>
       </c>
       <c r="H55" s="8" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I55" s="9" t="inlineStr">
@@ -2392,11 +2392,11 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45952.586226851854</v>
+        <v>45953.59605324074</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.45896</t>
+          <t>M.15608.6505.44409</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -2415,14 +2415,14 @@
         </is>
       </c>
       <c r="F56" s="6" t="n">
-        <v>13.4</v>
+        <v>59.97</v>
       </c>
       <c r="G56" s="7" t="n">
-        <v>1.34</v>
+        <v>6.0</v>
       </c>
       <c r="H56" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I56" s="9" t="inlineStr">
@@ -2433,11 +2433,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45952.560069444444</v>
+        <v>45953.35972222222</v>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6504.34027</t>
+          <t>M.15608.6504.1306645</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="F57" s="6" t="n">
-        <v>36.3</v>
+        <v>42.61</v>
       </c>
       <c r="G57" s="7" t="n">
-        <v>3.63</v>
+        <v>4.26</v>
       </c>
       <c r="H57" s="8" t="inlineStr">
         <is>
@@ -2474,11 +2474,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45952.487858796296</v>
+        <v>45953.086851851855</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.1430691</t>
+          <t>M.15608.6504.855829</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2497,14 +2497,14 @@
         </is>
       </c>
       <c r="F58" s="6" t="n">
-        <v>104.35</v>
+        <v>61.55</v>
       </c>
       <c r="G58" s="7" t="n">
-        <v>10.44</v>
+        <v>6.16</v>
       </c>
       <c r="H58" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I58" s="9" t="inlineStr">
@@ -2515,11 +2515,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45952.43483796297</v>
+        <v>45953.019780092596</v>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.1354508</t>
+          <t>M.15608.6504.753206</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2538,14 +2538,14 @@
         </is>
       </c>
       <c r="F59" s="6" t="n">
-        <v>44.2</v>
+        <v>29.3</v>
       </c>
       <c r="G59" s="7" t="n">
-        <v>4.42</v>
+        <v>2.93</v>
       </c>
       <c r="H59" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>D20</t>
         </is>
       </c>
       <c r="I59" s="9" t="inlineStr">
@@ -2556,11 +2556,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45952.12751157407</v>
+        <v>45952.97883101852</v>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.747194</t>
+          <t>M.15608.6504.694549</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="F60" s="6" t="n">
-        <v>45.78</v>
+        <v>26.83</v>
       </c>
       <c r="G60" s="7" t="n">
-        <v>4.58</v>
+        <v>2.68</v>
       </c>
       <c r="H60" s="8" t="inlineStr">
         <is>
@@ -2597,11 +2597,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45952.00640046296</v>
+        <v>45952.963692129626</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.566392</t>
+          <t>M.15608.6504.672763</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2620,14 +2620,14 @@
         </is>
       </c>
       <c r="F61" s="6" t="n">
-        <v>43.22</v>
+        <v>45.78</v>
       </c>
       <c r="G61" s="7" t="n">
-        <v>4.32</v>
+        <v>4.58</v>
       </c>
       <c r="H61" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I61" s="9" t="inlineStr">
@@ -2638,11 +2638,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45951.95179398148</v>
+        <v>45952.761770833335</v>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.460669</t>
+          <t>M.15608.6504.259796</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2661,14 +2661,14 @@
         </is>
       </c>
       <c r="F62" s="6" t="n">
-        <v>31.25</v>
+        <v>14.21</v>
       </c>
       <c r="G62" s="7" t="n">
-        <v>3.13</v>
+        <v>1.42</v>
       </c>
       <c r="H62" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I62" s="9" t="inlineStr">
@@ -2679,11 +2679,11 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45951.918599537035</v>
+        <v>45952.73630787037</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.413344</t>
+          <t>M.15608.6504.209654</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -2702,14 +2702,14 @@
         </is>
       </c>
       <c r="F63" s="6" t="n">
-        <v>26.83</v>
+        <v>124.7</v>
       </c>
       <c r="G63" s="7" t="n">
-        <v>2.68</v>
+        <v>12.47</v>
       </c>
       <c r="H63" s="8" t="inlineStr">
         <is>
-          <t>D26</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I63" s="9" t="inlineStr">
@@ -2720,11 +2720,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45951.695868055554</v>
+        <v>45952.685532407406</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.127414</t>
+          <t>M.15608.6504.125010</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="F64" s="6" t="n">
-        <v>14.21</v>
+        <v>37.88</v>
       </c>
       <c r="G64" s="7" t="n">
-        <v>1.42</v>
+        <v>3.79</v>
       </c>
       <c r="H64" s="8" t="inlineStr">
         <is>
@@ -2761,11 +2761,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45951.63533564815</v>
+        <v>45952.66378472222</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6503.85823</t>
+          <t>M.15608.6504.107621</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -2784,14 +2784,14 @@
         </is>
       </c>
       <c r="F65" s="6" t="n">
-        <v>37.25</v>
+        <v>39.46</v>
       </c>
       <c r="G65" s="7" t="n">
-        <v>3.73</v>
+        <v>3.95</v>
       </c>
       <c r="H65" s="8" t="inlineStr">
         <is>
-          <t>SAHS15</t>
+          <t>SAHS</t>
         </is>
       </c>
       <c r="I65" s="9" t="inlineStr">
@@ -2802,11 +2802,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45951.47851851852</v>
+        <v>45952.63895833334</v>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.1404826</t>
+          <t>M.15608.6504.78271</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2825,14 +2825,14 @@
         </is>
       </c>
       <c r="F66" s="6" t="n">
-        <v>14.21</v>
+        <v>34.73</v>
       </c>
       <c r="G66" s="7" t="n">
-        <v>1.42</v>
+        <v>3.47</v>
       </c>
       <c r="H66" s="8" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>D26</t>
         </is>
       </c>
       <c r="I66" s="9" t="inlineStr">
@@ -2843,11 +2843,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45951.430138888885</v>
+        <v>45952.633784722224</v>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.1343453</t>
+          <t>M.15608.6504.73385</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -2866,14 +2866,14 @@
         </is>
       </c>
       <c r="F67" s="6" t="n">
-        <v>36.3</v>
+        <v>14.21</v>
       </c>
       <c r="G67" s="7" t="n">
-        <v>3.63</v>
+        <v>1.42</v>
       </c>
       <c r="H67" s="8" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="I67" s="9" t="inlineStr">
@@ -2884,11 +2884,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45951.35328703704</v>
+        <v>45952.586226851854</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.1251979</t>
+          <t>M.15608.6504.45896</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2907,14 +2907,14 @@
         </is>
       </c>
       <c r="F68" s="6" t="n">
-        <v>110.49</v>
+        <v>13.4</v>
       </c>
       <c r="G68" s="7" t="n">
-        <v>11.05</v>
+        <v>1.34</v>
       </c>
       <c r="H68" s="8" t="inlineStr">
         <is>
-          <t>SAHS</t>
+          <t>SAHS15</t>
         </is>
       </c>
       <c r="I68" s="9" t="inlineStr">
@@ -2925,11 +2925,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45951.28636574074</v>
+        <v>45952.560069444444</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>M.15608.6502.1182640</t>
+          <t>M.15608.6504.34027</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="F69" s="6" t="n">
-        <v>64.72</v>
+        <v>36.3</v>
       </c>
       <c r="G69" s="7" t="n">
-        <v>6.47</v>
+        <v>3.63</v>
       </c>
       <c r="H69" s="8" t="inlineStr">
         <is>
@@ -2965,43 +2965,207 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B70" s="12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C70" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D70" s="14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E70" s="15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F70" s="16" t="n">
-        <v>3622.88</v>
-      </c>
-      <c r="G70" s="17" t="n">
-        <v>362.31</v>
-      </c>
-      <c r="H70" s="18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I70" s="19" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>45952.487858796296</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6503.1430691</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>Sale (iOS App)</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>104.35</v>
+      </c>
+      <c r="G70" s="7" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="H70" s="8" t="inlineStr">
+        <is>
+          <t>SAHS15</t>
+        </is>
+      </c>
+      <c r="I70" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>45952.43483796297</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6503.1354508</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>Sale (iOS App)</t>
+        </is>
+      </c>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="G71" s="7" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="H71" s="8" t="inlineStr">
+        <is>
+          <t>SAHS</t>
+        </is>
+      </c>
+      <c r="I71" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>45952.12751157407</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6503.747194</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>Sale (iOS App)</t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="G72" s="7" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="H72" s="8" t="inlineStr">
+        <is>
+          <t>SAHS</t>
+        </is>
+      </c>
+      <c r="I72" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>45952.00640046296</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>M.15608.6503.566392</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>Airalo - The World's First eSIM Store</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>Sale (iOS App)</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>43.22</v>
+      </c>
+      <c r="G73" s="7" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="H73" s="8" t="inlineStr">
+        <is>
+          <t>SAHS15</t>
+        </is>
+      </c>
+      <c r="I73" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C74" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D74" s="14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E74" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F74" s="16" t="n">
+        <v>4063.05</v>
+      </c>
+      <c r="G74" s="17" t="n">
+        <v>406.32</v>
+      </c>
+      <c r="H74" s="18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I74" s="19" t="inlineStr">
         <is>
           <t/>
         </is>
